--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書（管理システム).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書（管理システム).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2CD25-032D-48D8-A7F4-E607A40D7D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECAE8CA-6004-4317-8914-5F495FECFBA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E879DC26-1D50-4A19-9669-DB3293125234}</author>
+  </authors>
+  <commentList>
+    <comment ref="BB53" authorId="0" shapeId="0" xr:uid="{E879DC26-1D50-4A19-9669-DB3293125234}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    更新日と更新者を入れてください。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +909,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -952,6 +970,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1541,44 +1566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1603,10 +1590,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1624,6 +1649,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="office365 user9" id="{E1C88943-324F-4A9B-ACFE-72D848FC4436}" userId="office365 user9" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1921,6 +1952,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BB53" dT="2019-11-12T05:41:25.86" personId="{E1C88943-324F-4A9B-ACFE-72D848FC4436}" id="{E879DC26-1D50-4A19-9669-DB3293125234}">
+    <text>更新日と更新者を入れてください。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -1939,190 +1978,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="132" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120" t="s">
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="117" t="s">
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="126" t="s">
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="121" t="s">
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="147"/>
+      <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="122"/>
-      <c r="BE1" s="122"/>
-      <c r="BF1" s="122"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="122"/>
-      <c r="BI1" s="122"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="126" t="s">
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="118"/>
-      <c r="BM1" s="118"/>
-      <c r="BN1" s="118"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="124" t="s">
+      <c r="BL1" s="142"/>
+      <c r="BM1" s="142"/>
+      <c r="BN1" s="142"/>
+      <c r="BO1" s="147"/>
+      <c r="BP1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="118"/>
-      <c r="BR1" s="118"/>
-      <c r="BS1" s="118"/>
-      <c r="BT1" s="118"/>
-      <c r="BU1" s="118"/>
-      <c r="BV1" s="118"/>
-      <c r="BW1" s="118"/>
-      <c r="BX1" s="125"/>
+      <c r="BQ1" s="142"/>
+      <c r="BR1" s="142"/>
+      <c r="BS1" s="142"/>
+      <c r="BT1" s="142"/>
+      <c r="BU1" s="142"/>
+      <c r="BV1" s="142"/>
+      <c r="BW1" s="142"/>
+      <c r="BX1" s="143"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="131" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="127" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="128" t="s">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="127" t="s">
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="121"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="123"/>
-      <c r="BK2" s="127" t="s">
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="139"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="139"/>
+      <c r="BK2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="123"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="118"/>
-      <c r="BV2" s="118"/>
-      <c r="BW2" s="118"/>
-      <c r="BX2" s="125"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="139"/>
+      <c r="BP2" s="141"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="143"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -6061,197 +6100,197 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="133" t="str">
+      <c r="B52" s="142"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="149" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="118"/>
-      <c r="AC52" s="118"/>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="118"/>
-      <c r="AF52" s="118"/>
-      <c r="AG52" s="118"/>
-      <c r="AH52" s="118"/>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
-      <c r="AK52" s="118"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="118"/>
-      <c r="AN52" s="118"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="118"/>
-      <c r="AQ52" s="118"/>
-      <c r="AR52" s="118"/>
-      <c r="AS52" s="118"/>
-      <c r="AT52" s="118"/>
-      <c r="AU52" s="118"/>
-      <c r="AV52" s="119"/>
-      <c r="AW52" s="126" t="s">
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="142"/>
+      <c r="O52" s="142"/>
+      <c r="P52" s="142"/>
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="142"/>
+      <c r="W52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="142"/>
+      <c r="AC52" s="142"/>
+      <c r="AD52" s="142"/>
+      <c r="AE52" s="142"/>
+      <c r="AF52" s="142"/>
+      <c r="AG52" s="142"/>
+      <c r="AH52" s="142"/>
+      <c r="AI52" s="142"/>
+      <c r="AJ52" s="142"/>
+      <c r="AK52" s="142"/>
+      <c r="AL52" s="142"/>
+      <c r="AM52" s="142"/>
+      <c r="AN52" s="142"/>
+      <c r="AO52" s="142"/>
+      <c r="AP52" s="142"/>
+      <c r="AQ52" s="142"/>
+      <c r="AR52" s="142"/>
+      <c r="AS52" s="142"/>
+      <c r="AT52" s="142"/>
+      <c r="AU52" s="142"/>
+      <c r="AV52" s="147"/>
+      <c r="AW52" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="118"/>
-      <c r="AZ52" s="118"/>
-      <c r="BA52" s="119"/>
-      <c r="BB52" s="124" t="str">
+      <c r="AX52" s="142"/>
+      <c r="AY52" s="142"/>
+      <c r="AZ52" s="142"/>
+      <c r="BA52" s="147"/>
+      <c r="BB52" s="141" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="118"/>
-      <c r="BD52" s="118"/>
-      <c r="BE52" s="118"/>
-      <c r="BF52" s="118"/>
-      <c r="BG52" s="118"/>
-      <c r="BH52" s="118"/>
-      <c r="BI52" s="118"/>
-      <c r="BJ52" s="119"/>
-      <c r="BK52" s="126" t="s">
+      <c r="BC52" s="142"/>
+      <c r="BD52" s="142"/>
+      <c r="BE52" s="142"/>
+      <c r="BF52" s="142"/>
+      <c r="BG52" s="142"/>
+      <c r="BH52" s="142"/>
+      <c r="BI52" s="142"/>
+      <c r="BJ52" s="147"/>
+      <c r="BK52" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="118"/>
-      <c r="BM52" s="118"/>
-      <c r="BN52" s="118"/>
-      <c r="BO52" s="119"/>
-      <c r="BP52" s="124" t="str">
+      <c r="BL52" s="142"/>
+      <c r="BM52" s="142"/>
+      <c r="BN52" s="142"/>
+      <c r="BO52" s="147"/>
+      <c r="BP52" s="141" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="118"/>
-      <c r="BR52" s="118"/>
-      <c r="BS52" s="118"/>
-      <c r="BT52" s="118"/>
-      <c r="BU52" s="118"/>
-      <c r="BV52" s="118"/>
-      <c r="BW52" s="118"/>
-      <c r="BX52" s="125"/>
+      <c r="BQ52" s="142"/>
+      <c r="BR52" s="142"/>
+      <c r="BS52" s="142"/>
+      <c r="BT52" s="142"/>
+      <c r="BU52" s="142"/>
+      <c r="BV52" s="142"/>
+      <c r="BW52" s="142"/>
+      <c r="BX52" s="143"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="131" t="str">
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="151" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="122"/>
-      <c r="T53" s="122"/>
-      <c r="U53" s="122"/>
-      <c r="V53" s="122"/>
-      <c r="W53" s="122"/>
-      <c r="X53" s="122"/>
-      <c r="Y53" s="123"/>
-      <c r="Z53" s="127" t="s">
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="138"/>
+      <c r="X53" s="138"/>
+      <c r="Y53" s="139"/>
+      <c r="Z53" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA53" s="122"/>
-      <c r="AB53" s="122"/>
-      <c r="AC53" s="122"/>
-      <c r="AD53" s="123"/>
-      <c r="AE53" s="131" t="str">
+      <c r="AA53" s="138"/>
+      <c r="AB53" s="138"/>
+      <c r="AC53" s="138"/>
+      <c r="AD53" s="139"/>
+      <c r="AE53" s="151" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>ログイン画面</v>
       </c>
-      <c r="AF53" s="122"/>
-      <c r="AG53" s="122"/>
-      <c r="AH53" s="122"/>
-      <c r="AI53" s="122"/>
-      <c r="AJ53" s="122"/>
-      <c r="AK53" s="122"/>
-      <c r="AL53" s="122"/>
-      <c r="AM53" s="122"/>
-      <c r="AN53" s="122"/>
-      <c r="AO53" s="122"/>
-      <c r="AP53" s="122"/>
-      <c r="AQ53" s="122"/>
-      <c r="AR53" s="122"/>
-      <c r="AS53" s="122"/>
-      <c r="AT53" s="122"/>
-      <c r="AU53" s="122"/>
-      <c r="AV53" s="123"/>
-      <c r="AW53" s="127" t="s">
+      <c r="AF53" s="138"/>
+      <c r="AG53" s="138"/>
+      <c r="AH53" s="138"/>
+      <c r="AI53" s="138"/>
+      <c r="AJ53" s="138"/>
+      <c r="AK53" s="138"/>
+      <c r="AL53" s="138"/>
+      <c r="AM53" s="138"/>
+      <c r="AN53" s="138"/>
+      <c r="AO53" s="138"/>
+      <c r="AP53" s="138"/>
+      <c r="AQ53" s="138"/>
+      <c r="AR53" s="138"/>
+      <c r="AS53" s="138"/>
+      <c r="AT53" s="138"/>
+      <c r="AU53" s="138"/>
+      <c r="AV53" s="139"/>
+      <c r="AW53" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX53" s="122"/>
-      <c r="AY53" s="122"/>
-      <c r="AZ53" s="122"/>
-      <c r="BA53" s="123"/>
-      <c r="BB53" s="121" t="str">
+      <c r="AX53" s="138"/>
+      <c r="AY53" s="138"/>
+      <c r="AZ53" s="138"/>
+      <c r="BA53" s="139"/>
+      <c r="BB53" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v/>
       </c>
-      <c r="BC53" s="122"/>
-      <c r="BD53" s="122"/>
-      <c r="BE53" s="122"/>
-      <c r="BF53" s="122"/>
-      <c r="BG53" s="122"/>
-      <c r="BH53" s="122"/>
-      <c r="BI53" s="122"/>
-      <c r="BJ53" s="123"/>
-      <c r="BK53" s="127" t="s">
+      <c r="BC53" s="138"/>
+      <c r="BD53" s="138"/>
+      <c r="BE53" s="138"/>
+      <c r="BF53" s="138"/>
+      <c r="BG53" s="138"/>
+      <c r="BH53" s="138"/>
+      <c r="BI53" s="138"/>
+      <c r="BJ53" s="139"/>
+      <c r="BK53" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL53" s="122"/>
-      <c r="BM53" s="122"/>
-      <c r="BN53" s="122"/>
-      <c r="BO53" s="123"/>
-      <c r="BP53" s="121" t="str">
+      <c r="BL53" s="138"/>
+      <c r="BM53" s="138"/>
+      <c r="BN53" s="138"/>
+      <c r="BO53" s="139"/>
+      <c r="BP53" s="137" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v/>
       </c>
-      <c r="BQ53" s="122"/>
-      <c r="BR53" s="122"/>
-      <c r="BS53" s="122"/>
-      <c r="BT53" s="122"/>
-      <c r="BU53" s="122"/>
-      <c r="BV53" s="122"/>
-      <c r="BW53" s="122"/>
-      <c r="BX53" s="134"/>
+      <c r="BQ53" s="138"/>
+      <c r="BR53" s="138"/>
+      <c r="BS53" s="138"/>
+      <c r="BT53" s="138"/>
+      <c r="BU53" s="138"/>
+      <c r="BV53" s="138"/>
+      <c r="BW53" s="138"/>
+      <c r="BX53" s="144"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -8890,6 +8929,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE1:AV1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="F53:Y53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F52:AV52"/>
     <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="BP2:BX2"/>
@@ -8897,29 +8958,7 @@
     <mergeCell ref="BP53:BX53"/>
     <mergeCell ref="BP52:BX52"/>
     <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F52:AV52"/>
     <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="F53:Y53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE1:AV1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="AW1:BA1"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8934,7 +8973,7 @@
   </sheetPr>
   <dimension ref="A1:BZ86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -8945,190 +8984,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="132" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120" t="s">
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="117" t="s">
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="126" t="s">
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="121" t="s">
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="147"/>
+      <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="122"/>
-      <c r="BE1" s="122"/>
-      <c r="BF1" s="122"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="122"/>
-      <c r="BI1" s="122"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="126" t="s">
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="118"/>
-      <c r="BM1" s="118"/>
-      <c r="BN1" s="118"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="124" t="s">
+      <c r="BL1" s="142"/>
+      <c r="BM1" s="142"/>
+      <c r="BN1" s="142"/>
+      <c r="BO1" s="147"/>
+      <c r="BP1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="118"/>
-      <c r="BR1" s="118"/>
-      <c r="BS1" s="118"/>
-      <c r="BT1" s="118"/>
-      <c r="BU1" s="118"/>
-      <c r="BV1" s="118"/>
-      <c r="BW1" s="118"/>
-      <c r="BX1" s="125"/>
+      <c r="BQ1" s="142"/>
+      <c r="BR1" s="142"/>
+      <c r="BS1" s="142"/>
+      <c r="BT1" s="142"/>
+      <c r="BU1" s="142"/>
+      <c r="BV1" s="142"/>
+      <c r="BW1" s="142"/>
+      <c r="BX1" s="143"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="131" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="127" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="128" t="s">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="127" t="s">
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="121"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="123"/>
-      <c r="BK2" s="127" t="s">
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="139"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="139"/>
+      <c r="BK2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="123"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="118"/>
-      <c r="BV2" s="118"/>
-      <c r="BW2" s="118"/>
-      <c r="BX2" s="125"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="139"/>
+      <c r="BP2" s="141"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="143"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -13065,197 +13104,197 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="133" t="str">
+      <c r="B52" s="142"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="149" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="118"/>
-      <c r="AC52" s="118"/>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="118"/>
-      <c r="AF52" s="118"/>
-      <c r="AG52" s="118"/>
-      <c r="AH52" s="118"/>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
-      <c r="AK52" s="118"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="118"/>
-      <c r="AN52" s="118"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="118"/>
-      <c r="AQ52" s="118"/>
-      <c r="AR52" s="118"/>
-      <c r="AS52" s="118"/>
-      <c r="AT52" s="118"/>
-      <c r="AU52" s="118"/>
-      <c r="AV52" s="119"/>
-      <c r="AW52" s="126" t="s">
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="142"/>
+      <c r="O52" s="142"/>
+      <c r="P52" s="142"/>
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="142"/>
+      <c r="W52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="142"/>
+      <c r="AC52" s="142"/>
+      <c r="AD52" s="142"/>
+      <c r="AE52" s="142"/>
+      <c r="AF52" s="142"/>
+      <c r="AG52" s="142"/>
+      <c r="AH52" s="142"/>
+      <c r="AI52" s="142"/>
+      <c r="AJ52" s="142"/>
+      <c r="AK52" s="142"/>
+      <c r="AL52" s="142"/>
+      <c r="AM52" s="142"/>
+      <c r="AN52" s="142"/>
+      <c r="AO52" s="142"/>
+      <c r="AP52" s="142"/>
+      <c r="AQ52" s="142"/>
+      <c r="AR52" s="142"/>
+      <c r="AS52" s="142"/>
+      <c r="AT52" s="142"/>
+      <c r="AU52" s="142"/>
+      <c r="AV52" s="147"/>
+      <c r="AW52" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="118"/>
-      <c r="AZ52" s="118"/>
-      <c r="BA52" s="119"/>
-      <c r="BB52" s="124" t="str">
+      <c r="AX52" s="142"/>
+      <c r="AY52" s="142"/>
+      <c r="AZ52" s="142"/>
+      <c r="BA52" s="147"/>
+      <c r="BB52" s="141" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="118"/>
-      <c r="BD52" s="118"/>
-      <c r="BE52" s="118"/>
-      <c r="BF52" s="118"/>
-      <c r="BG52" s="118"/>
-      <c r="BH52" s="118"/>
-      <c r="BI52" s="118"/>
-      <c r="BJ52" s="119"/>
-      <c r="BK52" s="126" t="s">
+      <c r="BC52" s="142"/>
+      <c r="BD52" s="142"/>
+      <c r="BE52" s="142"/>
+      <c r="BF52" s="142"/>
+      <c r="BG52" s="142"/>
+      <c r="BH52" s="142"/>
+      <c r="BI52" s="142"/>
+      <c r="BJ52" s="147"/>
+      <c r="BK52" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="118"/>
-      <c r="BM52" s="118"/>
-      <c r="BN52" s="118"/>
-      <c r="BO52" s="119"/>
-      <c r="BP52" s="124" t="str">
+      <c r="BL52" s="142"/>
+      <c r="BM52" s="142"/>
+      <c r="BN52" s="142"/>
+      <c r="BO52" s="147"/>
+      <c r="BP52" s="141" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="118"/>
-      <c r="BR52" s="118"/>
-      <c r="BS52" s="118"/>
-      <c r="BT52" s="118"/>
-      <c r="BU52" s="118"/>
-      <c r="BV52" s="118"/>
-      <c r="BW52" s="118"/>
-      <c r="BX52" s="125"/>
+      <c r="BQ52" s="142"/>
+      <c r="BR52" s="142"/>
+      <c r="BS52" s="142"/>
+      <c r="BT52" s="142"/>
+      <c r="BU52" s="142"/>
+      <c r="BV52" s="142"/>
+      <c r="BW52" s="142"/>
+      <c r="BX52" s="143"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="131" t="str">
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="151" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="122"/>
-      <c r="T53" s="122"/>
-      <c r="U53" s="122"/>
-      <c r="V53" s="122"/>
-      <c r="W53" s="122"/>
-      <c r="X53" s="122"/>
-      <c r="Y53" s="123"/>
-      <c r="Z53" s="127" t="s">
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="138"/>
+      <c r="X53" s="138"/>
+      <c r="Y53" s="139"/>
+      <c r="Z53" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA53" s="122"/>
-      <c r="AB53" s="122"/>
-      <c r="AC53" s="122"/>
-      <c r="AD53" s="123"/>
-      <c r="AE53" s="131" t="str">
+      <c r="AA53" s="138"/>
+      <c r="AB53" s="138"/>
+      <c r="AC53" s="138"/>
+      <c r="AD53" s="139"/>
+      <c r="AE53" s="151" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>共通部</v>
       </c>
-      <c r="AF53" s="122"/>
-      <c r="AG53" s="122"/>
-      <c r="AH53" s="122"/>
-      <c r="AI53" s="122"/>
-      <c r="AJ53" s="122"/>
-      <c r="AK53" s="122"/>
-      <c r="AL53" s="122"/>
-      <c r="AM53" s="122"/>
-      <c r="AN53" s="122"/>
-      <c r="AO53" s="122"/>
-      <c r="AP53" s="122"/>
-      <c r="AQ53" s="122"/>
-      <c r="AR53" s="122"/>
-      <c r="AS53" s="122"/>
-      <c r="AT53" s="122"/>
-      <c r="AU53" s="122"/>
-      <c r="AV53" s="123"/>
-      <c r="AW53" s="127" t="s">
+      <c r="AF53" s="138"/>
+      <c r="AG53" s="138"/>
+      <c r="AH53" s="138"/>
+      <c r="AI53" s="138"/>
+      <c r="AJ53" s="138"/>
+      <c r="AK53" s="138"/>
+      <c r="AL53" s="138"/>
+      <c r="AM53" s="138"/>
+      <c r="AN53" s="138"/>
+      <c r="AO53" s="138"/>
+      <c r="AP53" s="138"/>
+      <c r="AQ53" s="138"/>
+      <c r="AR53" s="138"/>
+      <c r="AS53" s="138"/>
+      <c r="AT53" s="138"/>
+      <c r="AU53" s="138"/>
+      <c r="AV53" s="139"/>
+      <c r="AW53" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX53" s="122"/>
-      <c r="AY53" s="122"/>
-      <c r="AZ53" s="122"/>
-      <c r="BA53" s="123"/>
-      <c r="BB53" s="121" t="str">
+      <c r="AX53" s="138"/>
+      <c r="AY53" s="138"/>
+      <c r="AZ53" s="138"/>
+      <c r="BA53" s="139"/>
+      <c r="BB53" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v/>
       </c>
-      <c r="BC53" s="122"/>
-      <c r="BD53" s="122"/>
-      <c r="BE53" s="122"/>
-      <c r="BF53" s="122"/>
-      <c r="BG53" s="122"/>
-      <c r="BH53" s="122"/>
-      <c r="BI53" s="122"/>
-      <c r="BJ53" s="123"/>
-      <c r="BK53" s="127" t="s">
+      <c r="BC53" s="138"/>
+      <c r="BD53" s="138"/>
+      <c r="BE53" s="138"/>
+      <c r="BF53" s="138"/>
+      <c r="BG53" s="138"/>
+      <c r="BH53" s="138"/>
+      <c r="BI53" s="138"/>
+      <c r="BJ53" s="139"/>
+      <c r="BK53" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL53" s="122"/>
-      <c r="BM53" s="122"/>
-      <c r="BN53" s="122"/>
-      <c r="BO53" s="123"/>
-      <c r="BP53" s="121" t="str">
+      <c r="BL53" s="138"/>
+      <c r="BM53" s="138"/>
+      <c r="BN53" s="138"/>
+      <c r="BO53" s="139"/>
+      <c r="BP53" s="137" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v/>
       </c>
-      <c r="BQ53" s="122"/>
-      <c r="BR53" s="122"/>
-      <c r="BS53" s="122"/>
-      <c r="BT53" s="122"/>
-      <c r="BU53" s="122"/>
-      <c r="BV53" s="122"/>
-      <c r="BW53" s="122"/>
-      <c r="BX53" s="134"/>
+      <c r="BQ53" s="138"/>
+      <c r="BR53" s="138"/>
+      <c r="BS53" s="138"/>
+      <c r="BT53" s="138"/>
+      <c r="BU53" s="138"/>
+      <c r="BV53" s="138"/>
+      <c r="BW53" s="138"/>
+      <c r="BX53" s="144"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -15843,6 +15882,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE1:AV1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="BP53:BX53"/>
     <mergeCell ref="BP52:BX52"/>
     <mergeCell ref="BK53:BO53"/>
@@ -15854,25 +15909,9 @@
     <mergeCell ref="AW52:BA52"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE1:AV1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="BB53:BJ53"/>
     <mergeCell ref="BB52:BJ52"/>
     <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BB2:BJ2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15881,14 +15920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BZ86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="AI83" sqref="AI83"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="BH60" sqref="BH60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -15898,190 +15937,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="132" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120" t="s">
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="117" t="s">
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="126" t="s">
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="121" t="s">
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="147"/>
+      <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="122"/>
-      <c r="BE1" s="122"/>
-      <c r="BF1" s="122"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="122"/>
-      <c r="BI1" s="122"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="126" t="s">
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="118"/>
-      <c r="BM1" s="118"/>
-      <c r="BN1" s="118"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="124" t="s">
+      <c r="BL1" s="142"/>
+      <c r="BM1" s="142"/>
+      <c r="BN1" s="142"/>
+      <c r="BO1" s="147"/>
+      <c r="BP1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="118"/>
-      <c r="BR1" s="118"/>
-      <c r="BS1" s="118"/>
-      <c r="BT1" s="118"/>
-      <c r="BU1" s="118"/>
-      <c r="BV1" s="118"/>
-      <c r="BW1" s="118"/>
-      <c r="BX1" s="125"/>
+      <c r="BQ1" s="142"/>
+      <c r="BR1" s="142"/>
+      <c r="BS1" s="142"/>
+      <c r="BT1" s="142"/>
+      <c r="BU1" s="142"/>
+      <c r="BV1" s="142"/>
+      <c r="BW1" s="142"/>
+      <c r="BX1" s="143"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="131" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="127" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="128" t="s">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="127" t="s">
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="121"/>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="123"/>
-      <c r="BK2" s="127" t="s">
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="139"/>
+      <c r="BB2" s="137"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="139"/>
+      <c r="BK2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="123"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="118"/>
-      <c r="BV2" s="118"/>
-      <c r="BW2" s="118"/>
-      <c r="BX2" s="125"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="139"/>
+      <c r="BP2" s="141"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="143"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -20020,197 +20059,197 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="133" t="str">
+      <c r="B52" s="142"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="149" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="118"/>
-      <c r="AC52" s="118"/>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="118"/>
-      <c r="AF52" s="118"/>
-      <c r="AG52" s="118"/>
-      <c r="AH52" s="118"/>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
-      <c r="AK52" s="118"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="118"/>
-      <c r="AN52" s="118"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="118"/>
-      <c r="AQ52" s="118"/>
-      <c r="AR52" s="118"/>
-      <c r="AS52" s="118"/>
-      <c r="AT52" s="118"/>
-      <c r="AU52" s="118"/>
-      <c r="AV52" s="119"/>
-      <c r="AW52" s="126" t="s">
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="142"/>
+      <c r="O52" s="142"/>
+      <c r="P52" s="142"/>
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="142"/>
+      <c r="W52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="142"/>
+      <c r="AC52" s="142"/>
+      <c r="AD52" s="142"/>
+      <c r="AE52" s="142"/>
+      <c r="AF52" s="142"/>
+      <c r="AG52" s="142"/>
+      <c r="AH52" s="142"/>
+      <c r="AI52" s="142"/>
+      <c r="AJ52" s="142"/>
+      <c r="AK52" s="142"/>
+      <c r="AL52" s="142"/>
+      <c r="AM52" s="142"/>
+      <c r="AN52" s="142"/>
+      <c r="AO52" s="142"/>
+      <c r="AP52" s="142"/>
+      <c r="AQ52" s="142"/>
+      <c r="AR52" s="142"/>
+      <c r="AS52" s="142"/>
+      <c r="AT52" s="142"/>
+      <c r="AU52" s="142"/>
+      <c r="AV52" s="147"/>
+      <c r="AW52" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="118"/>
-      <c r="AZ52" s="118"/>
-      <c r="BA52" s="119"/>
-      <c r="BB52" s="124" t="str">
+      <c r="AX52" s="142"/>
+      <c r="AY52" s="142"/>
+      <c r="AZ52" s="142"/>
+      <c r="BA52" s="147"/>
+      <c r="BB52" s="141" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="118"/>
-      <c r="BD52" s="118"/>
-      <c r="BE52" s="118"/>
-      <c r="BF52" s="118"/>
-      <c r="BG52" s="118"/>
-      <c r="BH52" s="118"/>
-      <c r="BI52" s="118"/>
-      <c r="BJ52" s="119"/>
-      <c r="BK52" s="126" t="s">
+      <c r="BC52" s="142"/>
+      <c r="BD52" s="142"/>
+      <c r="BE52" s="142"/>
+      <c r="BF52" s="142"/>
+      <c r="BG52" s="142"/>
+      <c r="BH52" s="142"/>
+      <c r="BI52" s="142"/>
+      <c r="BJ52" s="147"/>
+      <c r="BK52" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="118"/>
-      <c r="BM52" s="118"/>
-      <c r="BN52" s="118"/>
-      <c r="BO52" s="119"/>
-      <c r="BP52" s="124" t="str">
+      <c r="BL52" s="142"/>
+      <c r="BM52" s="142"/>
+      <c r="BN52" s="142"/>
+      <c r="BO52" s="147"/>
+      <c r="BP52" s="141" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="118"/>
-      <c r="BR52" s="118"/>
-      <c r="BS52" s="118"/>
-      <c r="BT52" s="118"/>
-      <c r="BU52" s="118"/>
-      <c r="BV52" s="118"/>
-      <c r="BW52" s="118"/>
-      <c r="BX52" s="125"/>
+      <c r="BQ52" s="142"/>
+      <c r="BR52" s="142"/>
+      <c r="BS52" s="142"/>
+      <c r="BT52" s="142"/>
+      <c r="BU52" s="142"/>
+      <c r="BV52" s="142"/>
+      <c r="BW52" s="142"/>
+      <c r="BX52" s="143"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="131" t="str">
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="151" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="122"/>
-      <c r="T53" s="122"/>
-      <c r="U53" s="122"/>
-      <c r="V53" s="122"/>
-      <c r="W53" s="122"/>
-      <c r="X53" s="122"/>
-      <c r="Y53" s="123"/>
-      <c r="Z53" s="127" t="s">
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="138"/>
+      <c r="X53" s="138"/>
+      <c r="Y53" s="139"/>
+      <c r="Z53" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA53" s="122"/>
-      <c r="AB53" s="122"/>
-      <c r="AC53" s="122"/>
-      <c r="AD53" s="123"/>
-      <c r="AE53" s="131" t="str">
+      <c r="AA53" s="138"/>
+      <c r="AB53" s="138"/>
+      <c r="AC53" s="138"/>
+      <c r="AD53" s="139"/>
+      <c r="AE53" s="151" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ</v>
       </c>
-      <c r="AF53" s="122"/>
-      <c r="AG53" s="122"/>
-      <c r="AH53" s="122"/>
-      <c r="AI53" s="122"/>
-      <c r="AJ53" s="122"/>
-      <c r="AK53" s="122"/>
-      <c r="AL53" s="122"/>
-      <c r="AM53" s="122"/>
-      <c r="AN53" s="122"/>
-      <c r="AO53" s="122"/>
-      <c r="AP53" s="122"/>
-      <c r="AQ53" s="122"/>
-      <c r="AR53" s="122"/>
-      <c r="AS53" s="122"/>
-      <c r="AT53" s="122"/>
-      <c r="AU53" s="122"/>
-      <c r="AV53" s="123"/>
-      <c r="AW53" s="127" t="s">
+      <c r="AF53" s="138"/>
+      <c r="AG53" s="138"/>
+      <c r="AH53" s="138"/>
+      <c r="AI53" s="138"/>
+      <c r="AJ53" s="138"/>
+      <c r="AK53" s="138"/>
+      <c r="AL53" s="138"/>
+      <c r="AM53" s="138"/>
+      <c r="AN53" s="138"/>
+      <c r="AO53" s="138"/>
+      <c r="AP53" s="138"/>
+      <c r="AQ53" s="138"/>
+      <c r="AR53" s="138"/>
+      <c r="AS53" s="138"/>
+      <c r="AT53" s="138"/>
+      <c r="AU53" s="138"/>
+      <c r="AV53" s="139"/>
+      <c r="AW53" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX53" s="122"/>
-      <c r="AY53" s="122"/>
-      <c r="AZ53" s="122"/>
-      <c r="BA53" s="123"/>
-      <c r="BB53" s="121" t="str">
+      <c r="AX53" s="138"/>
+      <c r="AY53" s="138"/>
+      <c r="AZ53" s="138"/>
+      <c r="BA53" s="139"/>
+      <c r="BB53" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v/>
       </c>
-      <c r="BC53" s="122"/>
-      <c r="BD53" s="122"/>
-      <c r="BE53" s="122"/>
-      <c r="BF53" s="122"/>
-      <c r="BG53" s="122"/>
-      <c r="BH53" s="122"/>
-      <c r="BI53" s="122"/>
-      <c r="BJ53" s="123"/>
-      <c r="BK53" s="127" t="s">
+      <c r="BC53" s="138"/>
+      <c r="BD53" s="138"/>
+      <c r="BE53" s="138"/>
+      <c r="BF53" s="138"/>
+      <c r="BG53" s="138"/>
+      <c r="BH53" s="138"/>
+      <c r="BI53" s="138"/>
+      <c r="BJ53" s="139"/>
+      <c r="BK53" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL53" s="122"/>
-      <c r="BM53" s="122"/>
-      <c r="BN53" s="122"/>
-      <c r="BO53" s="123"/>
-      <c r="BP53" s="121" t="str">
+      <c r="BL53" s="138"/>
+      <c r="BM53" s="138"/>
+      <c r="BN53" s="138"/>
+      <c r="BO53" s="139"/>
+      <c r="BP53" s="137" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v/>
       </c>
-      <c r="BQ53" s="122"/>
-      <c r="BR53" s="122"/>
-      <c r="BS53" s="122"/>
-      <c r="BT53" s="122"/>
-      <c r="BU53" s="122"/>
-      <c r="BV53" s="122"/>
-      <c r="BW53" s="122"/>
-      <c r="BX53" s="134"/>
+      <c r="BQ53" s="138"/>
+      <c r="BR53" s="138"/>
+      <c r="BS53" s="138"/>
+      <c r="BT53" s="138"/>
+      <c r="BU53" s="138"/>
+      <c r="BV53" s="138"/>
+      <c r="BW53" s="138"/>
+      <c r="BX53" s="144"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -21066,7 +21105,7 @@
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
-      <c r="T64" s="135" t="s">
+      <c r="T64" s="117" t="s">
         <v>213</v>
       </c>
       <c r="U64" s="11"/>
@@ -21158,7 +21197,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
-      <c r="V65" s="135" t="s">
+      <c r="V65" s="117" t="s">
         <v>214</v>
       </c>
       <c r="W65" s="11"/>
@@ -22657,13 +22696,13 @@
     <row r="84" spans="1:78" ht="14.25" customHeight="1">
       <c r="A84" s="14"/>
       <c r="B84" s="11"/>
-      <c r="E84" s="136" t="s">
+      <c r="E84" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="K84" s="136" t="s">
+      <c r="K84" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="L84" s="136" t="s">
+      <c r="L84" s="118" t="s">
         <v>216</v>
       </c>
       <c r="N84" s="11"/>
@@ -22732,7 +22771,7 @@
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
-      <c r="T85" s="135" t="s">
+      <c r="T85" s="117" t="s">
         <v>214</v>
       </c>
       <c r="U85" s="11"/>
@@ -22876,6 +22915,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE1:AV1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="BP53:BX53"/>
     <mergeCell ref="BP52:BX52"/>
     <mergeCell ref="BK53:BO53"/>
@@ -22887,29 +22942,14 @@
     <mergeCell ref="AW52:BA52"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE1:AV1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="BB53:BJ53"/>
     <mergeCell ref="BB52:BJ52"/>
     <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BB2:BJ2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22920,7 +22960,7 @@
   </sheetPr>
   <dimension ref="A1:BZ198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AQ182" sqref="AQ182"/>
     </sheetView>
   </sheetViews>
@@ -22931,194 +22971,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="132" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120" t="s">
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="117" t="s">
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="126" t="s">
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="121" t="s">
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="147"/>
+      <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="BC1" s="122"/>
-      <c r="BD1" s="122"/>
-      <c r="BE1" s="122"/>
-      <c r="BF1" s="122"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="122"/>
-      <c r="BI1" s="122"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="126" t="s">
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="139"/>
+      <c r="BK1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="118"/>
-      <c r="BM1" s="118"/>
-      <c r="BN1" s="118"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="124" t="s">
+      <c r="BL1" s="142"/>
+      <c r="BM1" s="142"/>
+      <c r="BN1" s="142"/>
+      <c r="BO1" s="147"/>
+      <c r="BP1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="118"/>
-      <c r="BR1" s="118"/>
-      <c r="BS1" s="118"/>
-      <c r="BT1" s="118"/>
-      <c r="BU1" s="118"/>
-      <c r="BV1" s="118"/>
-      <c r="BW1" s="118"/>
-      <c r="BX1" s="125"/>
+      <c r="BQ1" s="142"/>
+      <c r="BR1" s="142"/>
+      <c r="BS1" s="142"/>
+      <c r="BT1" s="142"/>
+      <c r="BU1" s="142"/>
+      <c r="BV1" s="142"/>
+      <c r="BW1" s="142"/>
+      <c r="BX1" s="143"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="131" t="s">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="127" t="s">
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="128" t="s">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="122"/>
-      <c r="AR2" s="122"/>
-      <c r="AS2" s="122"/>
-      <c r="AT2" s="122"/>
-      <c r="AU2" s="122"/>
-      <c r="AV2" s="123"/>
-      <c r="AW2" s="127" t="s">
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="122"/>
-      <c r="AY2" s="122"/>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="155" t="s">
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="139"/>
+      <c r="BB2" s="156" t="s">
         <v>233</v>
       </c>
-      <c r="BC2" s="122"/>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="122"/>
-      <c r="BG2" s="122"/>
-      <c r="BH2" s="122"/>
-      <c r="BI2" s="122"/>
-      <c r="BJ2" s="123"/>
-      <c r="BK2" s="127" t="s">
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="139"/>
+      <c r="BK2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="122"/>
-      <c r="BO2" s="123"/>
-      <c r="BP2" s="156" t="s">
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="139"/>
+      <c r="BP2" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="118"/>
-      <c r="BV2" s="118"/>
-      <c r="BW2" s="118"/>
-      <c r="BX2" s="125"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="143"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -27065,197 +27105,197 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="133" t="str">
+      <c r="B52" s="142"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="149" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="118"/>
-      <c r="AC52" s="118"/>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="118"/>
-      <c r="AF52" s="118"/>
-      <c r="AG52" s="118"/>
-      <c r="AH52" s="118"/>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
-      <c r="AK52" s="118"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="118"/>
-      <c r="AN52" s="118"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="118"/>
-      <c r="AQ52" s="118"/>
-      <c r="AR52" s="118"/>
-      <c r="AS52" s="118"/>
-      <c r="AT52" s="118"/>
-      <c r="AU52" s="118"/>
-      <c r="AV52" s="119"/>
-      <c r="AW52" s="126" t="s">
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="142"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="142"/>
+      <c r="O52" s="142"/>
+      <c r="P52" s="142"/>
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="142"/>
+      <c r="W52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="142"/>
+      <c r="AC52" s="142"/>
+      <c r="AD52" s="142"/>
+      <c r="AE52" s="142"/>
+      <c r="AF52" s="142"/>
+      <c r="AG52" s="142"/>
+      <c r="AH52" s="142"/>
+      <c r="AI52" s="142"/>
+      <c r="AJ52" s="142"/>
+      <c r="AK52" s="142"/>
+      <c r="AL52" s="142"/>
+      <c r="AM52" s="142"/>
+      <c r="AN52" s="142"/>
+      <c r="AO52" s="142"/>
+      <c r="AP52" s="142"/>
+      <c r="AQ52" s="142"/>
+      <c r="AR52" s="142"/>
+      <c r="AS52" s="142"/>
+      <c r="AT52" s="142"/>
+      <c r="AU52" s="142"/>
+      <c r="AV52" s="147"/>
+      <c r="AW52" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="118"/>
-      <c r="AY52" s="118"/>
-      <c r="AZ52" s="118"/>
-      <c r="BA52" s="119"/>
-      <c r="BB52" s="124" t="str">
+      <c r="AX52" s="142"/>
+      <c r="AY52" s="142"/>
+      <c r="AZ52" s="142"/>
+      <c r="BA52" s="147"/>
+      <c r="BB52" s="141" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="118"/>
-      <c r="BD52" s="118"/>
-      <c r="BE52" s="118"/>
-      <c r="BF52" s="118"/>
-      <c r="BG52" s="118"/>
-      <c r="BH52" s="118"/>
-      <c r="BI52" s="118"/>
-      <c r="BJ52" s="119"/>
-      <c r="BK52" s="126" t="s">
+      <c r="BC52" s="142"/>
+      <c r="BD52" s="142"/>
+      <c r="BE52" s="142"/>
+      <c r="BF52" s="142"/>
+      <c r="BG52" s="142"/>
+      <c r="BH52" s="142"/>
+      <c r="BI52" s="142"/>
+      <c r="BJ52" s="147"/>
+      <c r="BK52" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="118"/>
-      <c r="BM52" s="118"/>
-      <c r="BN52" s="118"/>
-      <c r="BO52" s="119"/>
-      <c r="BP52" s="124" t="str">
+      <c r="BL52" s="142"/>
+      <c r="BM52" s="142"/>
+      <c r="BN52" s="142"/>
+      <c r="BO52" s="147"/>
+      <c r="BP52" s="141" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="118"/>
-      <c r="BR52" s="118"/>
-      <c r="BS52" s="118"/>
-      <c r="BT52" s="118"/>
-      <c r="BU52" s="118"/>
-      <c r="BV52" s="118"/>
-      <c r="BW52" s="118"/>
-      <c r="BX52" s="125"/>
+      <c r="BQ52" s="142"/>
+      <c r="BR52" s="142"/>
+      <c r="BS52" s="142"/>
+      <c r="BT52" s="142"/>
+      <c r="BU52" s="142"/>
+      <c r="BV52" s="142"/>
+      <c r="BW52" s="142"/>
+      <c r="BX52" s="143"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="131" t="str">
+      <c r="B53" s="138"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="151" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
-      <c r="G53" s="122"/>
-      <c r="H53" s="122"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-      <c r="M53" s="122"/>
-      <c r="N53" s="122"/>
-      <c r="O53" s="122"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="122"/>
-      <c r="T53" s="122"/>
-      <c r="U53" s="122"/>
-      <c r="V53" s="122"/>
-      <c r="W53" s="122"/>
-      <c r="X53" s="122"/>
-      <c r="Y53" s="123"/>
-      <c r="Z53" s="127" t="s">
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
+      <c r="V53" s="138"/>
+      <c r="W53" s="138"/>
+      <c r="X53" s="138"/>
+      <c r="Y53" s="139"/>
+      <c r="Z53" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA53" s="122"/>
-      <c r="AB53" s="122"/>
-      <c r="AC53" s="122"/>
-      <c r="AD53" s="123"/>
-      <c r="AE53" s="131" t="str">
+      <c r="AA53" s="138"/>
+      <c r="AB53" s="138"/>
+      <c r="AC53" s="138"/>
+      <c r="AD53" s="139"/>
+      <c r="AE53" s="151" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ詳細</v>
       </c>
-      <c r="AF53" s="122"/>
-      <c r="AG53" s="122"/>
-      <c r="AH53" s="122"/>
-      <c r="AI53" s="122"/>
-      <c r="AJ53" s="122"/>
-      <c r="AK53" s="122"/>
-      <c r="AL53" s="122"/>
-      <c r="AM53" s="122"/>
-      <c r="AN53" s="122"/>
-      <c r="AO53" s="122"/>
-      <c r="AP53" s="122"/>
-      <c r="AQ53" s="122"/>
-      <c r="AR53" s="122"/>
-      <c r="AS53" s="122"/>
-      <c r="AT53" s="122"/>
-      <c r="AU53" s="122"/>
-      <c r="AV53" s="123"/>
-      <c r="AW53" s="127" t="s">
+      <c r="AF53" s="138"/>
+      <c r="AG53" s="138"/>
+      <c r="AH53" s="138"/>
+      <c r="AI53" s="138"/>
+      <c r="AJ53" s="138"/>
+      <c r="AK53" s="138"/>
+      <c r="AL53" s="138"/>
+      <c r="AM53" s="138"/>
+      <c r="AN53" s="138"/>
+      <c r="AO53" s="138"/>
+      <c r="AP53" s="138"/>
+      <c r="AQ53" s="138"/>
+      <c r="AR53" s="138"/>
+      <c r="AS53" s="138"/>
+      <c r="AT53" s="138"/>
+      <c r="AU53" s="138"/>
+      <c r="AV53" s="139"/>
+      <c r="AW53" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX53" s="122"/>
-      <c r="AY53" s="122"/>
-      <c r="AZ53" s="122"/>
-      <c r="BA53" s="123"/>
-      <c r="BB53" s="121" t="str">
+      <c r="AX53" s="138"/>
+      <c r="AY53" s="138"/>
+      <c r="AZ53" s="138"/>
+      <c r="BA53" s="139"/>
+      <c r="BB53" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/11/11/</v>
       </c>
-      <c r="BC53" s="122"/>
-      <c r="BD53" s="122"/>
-      <c r="BE53" s="122"/>
-      <c r="BF53" s="122"/>
-      <c r="BG53" s="122"/>
-      <c r="BH53" s="122"/>
-      <c r="BI53" s="122"/>
-      <c r="BJ53" s="123"/>
-      <c r="BK53" s="127" t="s">
+      <c r="BC53" s="138"/>
+      <c r="BD53" s="138"/>
+      <c r="BE53" s="138"/>
+      <c r="BF53" s="138"/>
+      <c r="BG53" s="138"/>
+      <c r="BH53" s="138"/>
+      <c r="BI53" s="138"/>
+      <c r="BJ53" s="139"/>
+      <c r="BK53" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL53" s="122"/>
-      <c r="BM53" s="122"/>
-      <c r="BN53" s="122"/>
-      <c r="BO53" s="123"/>
-      <c r="BP53" s="121" t="str">
+      <c r="BL53" s="138"/>
+      <c r="BM53" s="138"/>
+      <c r="BN53" s="138"/>
+      <c r="BO53" s="139"/>
+      <c r="BP53" s="137" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ53" s="122"/>
-      <c r="BR53" s="122"/>
-      <c r="BS53" s="122"/>
-      <c r="BT53" s="122"/>
-      <c r="BU53" s="122"/>
-      <c r="BV53" s="122"/>
-      <c r="BW53" s="122"/>
-      <c r="BX53" s="134"/>
+      <c r="BQ53" s="138"/>
+      <c r="BR53" s="138"/>
+      <c r="BS53" s="138"/>
+      <c r="BT53" s="138"/>
+      <c r="BU53" s="138"/>
+      <c r="BV53" s="138"/>
+      <c r="BW53" s="138"/>
+      <c r="BX53" s="144"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -28089,7 +28129,7 @@
       <c r="BM63" s="31"/>
       <c r="BN63" s="31"/>
       <c r="BO63" s="31"/>
-      <c r="BP63" s="139" t="s">
+      <c r="BP63" s="121" t="s">
         <v>221</v>
       </c>
       <c r="BQ63" s="11"/>
@@ -28162,7 +28202,7 @@
       <c r="BD64" s="31"/>
       <c r="BE64" s="31"/>
       <c r="BF64" s="31"/>
-      <c r="BG64" s="139" t="s">
+      <c r="BG64" s="121" t="s">
         <v>214</v>
       </c>
       <c r="BH64" s="31"/>
@@ -28170,7 +28210,7 @@
       <c r="BJ64" s="31"/>
       <c r="BK64" s="31"/>
       <c r="BL64" s="31"/>
-      <c r="BM64" s="138"/>
+      <c r="BM64" s="120"/>
       <c r="BN64" s="31"/>
       <c r="BO64" s="31"/>
       <c r="BP64" s="31"/>
@@ -29431,17 +29471,17 @@
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="135" t="s">
+      <c r="E79" s="117" t="s">
         <v>217</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="135" t="s">
+      <c r="J79" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="K79" s="137" t="s">
+      <c r="K79" s="119" t="s">
         <v>219</v>
       </c>
       <c r="L79" s="11"/>
@@ -29532,7 +29572,7 @@
       <c r="K80" s="59"/>
       <c r="L80" s="15"/>
       <c r="M80" s="11"/>
-      <c r="N80" s="135" t="s">
+      <c r="N80" s="117" t="s">
         <v>220</v>
       </c>
       <c r="O80" s="11"/>
@@ -29733,17 +29773,17 @@
       <c r="AM82" s="12"/>
       <c r="AN82" s="11"/>
       <c r="AO82" s="11"/>
-      <c r="AP82" s="135" t="s">
+      <c r="AP82" s="117" t="s">
         <v>213</v>
       </c>
       <c r="AQ82" s="31"/>
       <c r="AR82" s="31"/>
       <c r="AS82" s="31"/>
       <c r="AT82" s="31"/>
-      <c r="AU82" s="139" t="s">
+      <c r="AU82" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="AV82" s="139" t="s">
+      <c r="AV82" s="121" t="s">
         <v>222</v>
       </c>
       <c r="AW82" s="31"/>
@@ -29818,7 +29858,7 @@
       <c r="AM83" s="12"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="11"/>
-      <c r="BB83" s="136" t="s">
+      <c r="BB83" s="118" t="s">
         <v>214</v>
       </c>
       <c r="BD83" s="31"/>
@@ -30066,195 +30106,195 @@
       <c r="BZ86" s="11"/>
     </row>
     <row r="87" spans="1:78" ht="30.75" customHeight="1">
-      <c r="A87" s="129" t="s">
+      <c r="A87" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="118"/>
-      <c r="E87" s="119"/>
-      <c r="F87" s="133" t="str">
+      <c r="B87" s="142"/>
+      <c r="C87" s="142"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="147"/>
+      <c r="F87" s="149" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G87" s="118"/>
-      <c r="H87" s="118"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="118"/>
-      <c r="K87" s="118"/>
-      <c r="L87" s="118"/>
-      <c r="M87" s="118"/>
-      <c r="N87" s="118"/>
-      <c r="O87" s="118"/>
-      <c r="P87" s="118"/>
-      <c r="Q87" s="118"/>
-      <c r="R87" s="118"/>
-      <c r="S87" s="118"/>
-      <c r="T87" s="118"/>
-      <c r="U87" s="118"/>
-      <c r="V87" s="118"/>
-      <c r="W87" s="118"/>
-      <c r="X87" s="118"/>
-      <c r="Y87" s="118"/>
-      <c r="Z87" s="118"/>
-      <c r="AA87" s="118"/>
-      <c r="AB87" s="118"/>
-      <c r="AC87" s="118"/>
-      <c r="AD87" s="118"/>
-      <c r="AE87" s="118"/>
-      <c r="AF87" s="118"/>
-      <c r="AG87" s="118"/>
-      <c r="AH87" s="118"/>
-      <c r="AI87" s="118"/>
-      <c r="AJ87" s="118"/>
-      <c r="AK87" s="118"/>
-      <c r="AL87" s="118"/>
-      <c r="AM87" s="118"/>
-      <c r="AN87" s="118"/>
-      <c r="AO87" s="118"/>
-      <c r="AP87" s="118"/>
-      <c r="AQ87" s="118"/>
-      <c r="AR87" s="118"/>
-      <c r="AS87" s="118"/>
-      <c r="AT87" s="118"/>
-      <c r="AU87" s="118"/>
-      <c r="AV87" s="119"/>
-      <c r="AW87" s="126" t="s">
+      <c r="G87" s="142"/>
+      <c r="H87" s="142"/>
+      <c r="I87" s="142"/>
+      <c r="J87" s="142"/>
+      <c r="K87" s="142"/>
+      <c r="L87" s="142"/>
+      <c r="M87" s="142"/>
+      <c r="N87" s="142"/>
+      <c r="O87" s="142"/>
+      <c r="P87" s="142"/>
+      <c r="Q87" s="142"/>
+      <c r="R87" s="142"/>
+      <c r="S87" s="142"/>
+      <c r="T87" s="142"/>
+      <c r="U87" s="142"/>
+      <c r="V87" s="142"/>
+      <c r="W87" s="142"/>
+      <c r="X87" s="142"/>
+      <c r="Y87" s="142"/>
+      <c r="Z87" s="142"/>
+      <c r="AA87" s="142"/>
+      <c r="AB87" s="142"/>
+      <c r="AC87" s="142"/>
+      <c r="AD87" s="142"/>
+      <c r="AE87" s="142"/>
+      <c r="AF87" s="142"/>
+      <c r="AG87" s="142"/>
+      <c r="AH87" s="142"/>
+      <c r="AI87" s="142"/>
+      <c r="AJ87" s="142"/>
+      <c r="AK87" s="142"/>
+      <c r="AL87" s="142"/>
+      <c r="AM87" s="142"/>
+      <c r="AN87" s="142"/>
+      <c r="AO87" s="142"/>
+      <c r="AP87" s="142"/>
+      <c r="AQ87" s="142"/>
+      <c r="AR87" s="142"/>
+      <c r="AS87" s="142"/>
+      <c r="AT87" s="142"/>
+      <c r="AU87" s="142"/>
+      <c r="AV87" s="147"/>
+      <c r="AW87" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX87" s="118"/>
-      <c r="AY87" s="118"/>
-      <c r="AZ87" s="118"/>
-      <c r="BA87" s="119"/>
-      <c r="BB87" s="124" t="str">
+      <c r="AX87" s="142"/>
+      <c r="AY87" s="142"/>
+      <c r="AZ87" s="142"/>
+      <c r="BA87" s="147"/>
+      <c r="BB87" s="141" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC87" s="118"/>
-      <c r="BD87" s="118"/>
-      <c r="BE87" s="118"/>
-      <c r="BF87" s="118"/>
-      <c r="BG87" s="118"/>
-      <c r="BH87" s="118"/>
-      <c r="BI87" s="118"/>
-      <c r="BJ87" s="119"/>
-      <c r="BK87" s="126" t="s">
+      <c r="BC87" s="142"/>
+      <c r="BD87" s="142"/>
+      <c r="BE87" s="142"/>
+      <c r="BF87" s="142"/>
+      <c r="BG87" s="142"/>
+      <c r="BH87" s="142"/>
+      <c r="BI87" s="142"/>
+      <c r="BJ87" s="147"/>
+      <c r="BK87" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL87" s="118"/>
-      <c r="BM87" s="118"/>
-      <c r="BN87" s="118"/>
-      <c r="BO87" s="119"/>
-      <c r="BP87" s="124" t="str">
+      <c r="BL87" s="142"/>
+      <c r="BM87" s="142"/>
+      <c r="BN87" s="142"/>
+      <c r="BO87" s="147"/>
+      <c r="BP87" s="141" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ87" s="118"/>
-      <c r="BR87" s="118"/>
-      <c r="BS87" s="118"/>
-      <c r="BT87" s="118"/>
-      <c r="BU87" s="118"/>
-      <c r="BV87" s="118"/>
-      <c r="BW87" s="118"/>
-      <c r="BX87" s="125"/>
+      <c r="BQ87" s="142"/>
+      <c r="BR87" s="142"/>
+      <c r="BS87" s="142"/>
+      <c r="BT87" s="142"/>
+      <c r="BU87" s="142"/>
+      <c r="BV87" s="142"/>
+      <c r="BW87" s="142"/>
+      <c r="BX87" s="143"/>
     </row>
     <row r="88" spans="1:78" ht="30.75" customHeight="1">
-      <c r="A88" s="130" t="s">
+      <c r="A88" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="131" t="str">
+      <c r="B88" s="138"/>
+      <c r="C88" s="138"/>
+      <c r="D88" s="138"/>
+      <c r="E88" s="139"/>
+      <c r="F88" s="151" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
-      <c r="G88" s="122"/>
-      <c r="H88" s="122"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="122"/>
-      <c r="L88" s="122"/>
-      <c r="M88" s="122"/>
-      <c r="N88" s="122"/>
-      <c r="O88" s="122"/>
-      <c r="P88" s="122"/>
-      <c r="Q88" s="122"/>
-      <c r="R88" s="122"/>
-      <c r="S88" s="122"/>
-      <c r="T88" s="122"/>
-      <c r="U88" s="122"/>
-      <c r="V88" s="122"/>
-      <c r="W88" s="122"/>
-      <c r="X88" s="122"/>
-      <c r="Y88" s="123"/>
-      <c r="Z88" s="127" t="s">
+      <c r="G88" s="138"/>
+      <c r="H88" s="138"/>
+      <c r="I88" s="138"/>
+      <c r="J88" s="138"/>
+      <c r="K88" s="138"/>
+      <c r="L88" s="138"/>
+      <c r="M88" s="138"/>
+      <c r="N88" s="138"/>
+      <c r="O88" s="138"/>
+      <c r="P88" s="138"/>
+      <c r="Q88" s="138"/>
+      <c r="R88" s="138"/>
+      <c r="S88" s="138"/>
+      <c r="T88" s="138"/>
+      <c r="U88" s="138"/>
+      <c r="V88" s="138"/>
+      <c r="W88" s="138"/>
+      <c r="X88" s="138"/>
+      <c r="Y88" s="139"/>
+      <c r="Z88" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA88" s="122"/>
-      <c r="AB88" s="122"/>
-      <c r="AC88" s="122"/>
-      <c r="AD88" s="123"/>
-      <c r="AE88" s="131" t="str">
+      <c r="AA88" s="138"/>
+      <c r="AB88" s="138"/>
+      <c r="AC88" s="138"/>
+      <c r="AD88" s="139"/>
+      <c r="AE88" s="151" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ詳細</v>
       </c>
-      <c r="AF88" s="122"/>
-      <c r="AG88" s="122"/>
-      <c r="AH88" s="122"/>
-      <c r="AI88" s="122"/>
-      <c r="AJ88" s="122"/>
-      <c r="AK88" s="122"/>
-      <c r="AL88" s="122"/>
-      <c r="AM88" s="122"/>
-      <c r="AN88" s="122"/>
-      <c r="AO88" s="122"/>
-      <c r="AP88" s="122"/>
-      <c r="AQ88" s="122"/>
-      <c r="AR88" s="122"/>
-      <c r="AS88" s="122"/>
-      <c r="AT88" s="122"/>
-      <c r="AU88" s="122"/>
-      <c r="AV88" s="123"/>
-      <c r="AW88" s="127" t="s">
+      <c r="AF88" s="138"/>
+      <c r="AG88" s="138"/>
+      <c r="AH88" s="138"/>
+      <c r="AI88" s="138"/>
+      <c r="AJ88" s="138"/>
+      <c r="AK88" s="138"/>
+      <c r="AL88" s="138"/>
+      <c r="AM88" s="138"/>
+      <c r="AN88" s="138"/>
+      <c r="AO88" s="138"/>
+      <c r="AP88" s="138"/>
+      <c r="AQ88" s="138"/>
+      <c r="AR88" s="138"/>
+      <c r="AS88" s="138"/>
+      <c r="AT88" s="138"/>
+      <c r="AU88" s="138"/>
+      <c r="AV88" s="139"/>
+      <c r="AW88" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX88" s="122"/>
-      <c r="AY88" s="122"/>
-      <c r="AZ88" s="122"/>
-      <c r="BA88" s="123"/>
-      <c r="BB88" s="121" t="str">
+      <c r="AX88" s="138"/>
+      <c r="AY88" s="138"/>
+      <c r="AZ88" s="138"/>
+      <c r="BA88" s="139"/>
+      <c r="BB88" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/11/11/</v>
       </c>
-      <c r="BC88" s="122"/>
-      <c r="BD88" s="122"/>
-      <c r="BE88" s="122"/>
-      <c r="BF88" s="122"/>
-      <c r="BG88" s="122"/>
-      <c r="BH88" s="122"/>
-      <c r="BI88" s="122"/>
-      <c r="BJ88" s="123"/>
-      <c r="BK88" s="127" t="s">
+      <c r="BC88" s="138"/>
+      <c r="BD88" s="138"/>
+      <c r="BE88" s="138"/>
+      <c r="BF88" s="138"/>
+      <c r="BG88" s="138"/>
+      <c r="BH88" s="138"/>
+      <c r="BI88" s="138"/>
+      <c r="BJ88" s="139"/>
+      <c r="BK88" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL88" s="122"/>
-      <c r="BM88" s="122"/>
-      <c r="BN88" s="122"/>
-      <c r="BO88" s="123"/>
-      <c r="BP88" s="121" t="str">
+      <c r="BL88" s="138"/>
+      <c r="BM88" s="138"/>
+      <c r="BN88" s="138"/>
+      <c r="BO88" s="139"/>
+      <c r="BP88" s="137" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ88" s="122"/>
-      <c r="BR88" s="122"/>
-      <c r="BS88" s="122"/>
-      <c r="BT88" s="122"/>
-      <c r="BU88" s="122"/>
-      <c r="BV88" s="122"/>
-      <c r="BW88" s="122"/>
-      <c r="BX88" s="134"/>
+      <c r="BQ88" s="138"/>
+      <c r="BR88" s="138"/>
+      <c r="BS88" s="138"/>
+      <c r="BT88" s="138"/>
+      <c r="BU88" s="138"/>
+      <c r="BV88" s="138"/>
+      <c r="BW88" s="138"/>
+      <c r="BX88" s="144"/>
     </row>
     <row r="89" spans="1:78" ht="13.5">
       <c r="A89" s="9" t="s">
@@ -32951,7 +32991,7 @@
       <c r="A121" s="14"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
-      <c r="D121" s="147" t="s">
+      <c r="D121" s="129" t="s">
         <v>217</v>
       </c>
       <c r="E121" s="67"/>
@@ -32960,10 +33000,10 @@
       <c r="H121" s="11"/>
       <c r="I121" s="67"/>
       <c r="J121" s="67"/>
-      <c r="K121" s="147" t="s">
+      <c r="K121" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="L121" s="137" t="s">
+      <c r="L121" s="119" t="s">
         <v>224</v>
       </c>
       <c r="M121" s="11"/>
@@ -32995,39 +33035,39 @@
       <c r="AM121" s="12"/>
       <c r="AN121" s="67"/>
       <c r="AO121" s="71"/>
-      <c r="AP121" s="142"/>
+      <c r="AP121" s="124"/>
       <c r="AQ121" s="66"/>
-      <c r="AR121" s="143"/>
-      <c r="AS121" s="143"/>
-      <c r="AT121" s="143"/>
-      <c r="AU121" s="143"/>
-      <c r="AV121" s="143"/>
-      <c r="AW121" s="144"/>
-      <c r="AX121" s="143"/>
-      <c r="AY121" s="143"/>
-      <c r="AZ121" s="143"/>
-      <c r="BA121" s="143"/>
-      <c r="BB121" s="143"/>
-      <c r="BC121" s="143"/>
-      <c r="BD121" s="143"/>
-      <c r="BE121" s="143"/>
-      <c r="BF121" s="143"/>
-      <c r="BG121" s="143"/>
-      <c r="BH121" s="143"/>
-      <c r="BI121" s="143"/>
-      <c r="BJ121" s="143"/>
-      <c r="BK121" s="143"/>
-      <c r="BL121" s="143"/>
-      <c r="BM121" s="143"/>
-      <c r="BN121" s="143"/>
-      <c r="BO121" s="143"/>
-      <c r="BP121" s="145"/>
-      <c r="BQ121" s="145"/>
-      <c r="BR121" s="146"/>
-      <c r="BS121" s="146"/>
-      <c r="BT121" s="146"/>
-      <c r="BU121" s="146"/>
-      <c r="BV121" s="146"/>
+      <c r="AR121" s="125"/>
+      <c r="AS121" s="125"/>
+      <c r="AT121" s="125"/>
+      <c r="AU121" s="125"/>
+      <c r="AV121" s="125"/>
+      <c r="AW121" s="126"/>
+      <c r="AX121" s="125"/>
+      <c r="AY121" s="125"/>
+      <c r="AZ121" s="125"/>
+      <c r="BA121" s="125"/>
+      <c r="BB121" s="125"/>
+      <c r="BC121" s="125"/>
+      <c r="BD121" s="125"/>
+      <c r="BE121" s="125"/>
+      <c r="BF121" s="125"/>
+      <c r="BG121" s="125"/>
+      <c r="BH121" s="125"/>
+      <c r="BI121" s="125"/>
+      <c r="BJ121" s="125"/>
+      <c r="BK121" s="125"/>
+      <c r="BL121" s="125"/>
+      <c r="BM121" s="125"/>
+      <c r="BN121" s="125"/>
+      <c r="BO121" s="125"/>
+      <c r="BP121" s="127"/>
+      <c r="BQ121" s="127"/>
+      <c r="BR121" s="128"/>
+      <c r="BS121" s="128"/>
+      <c r="BT121" s="128"/>
+      <c r="BU121" s="128"/>
+      <c r="BV121" s="128"/>
       <c r="BW121" s="11"/>
       <c r="BX121" s="13"/>
     </row>
@@ -33043,7 +33083,7 @@
       <c r="I122" s="67"/>
       <c r="J122" s="67"/>
       <c r="K122" s="67"/>
-      <c r="L122" s="137" t="s">
+      <c r="L122" s="119" t="s">
         <v>223</v>
       </c>
       <c r="M122" s="11"/>
@@ -33075,39 +33115,39 @@
       <c r="AM122" s="12"/>
       <c r="AN122" s="67"/>
       <c r="AO122" s="71"/>
-      <c r="AP122" s="142"/>
+      <c r="AP122" s="124"/>
       <c r="AQ122" s="66"/>
-      <c r="AR122" s="143"/>
-      <c r="AS122" s="143"/>
-      <c r="AT122" s="143"/>
-      <c r="AU122" s="143"/>
-      <c r="AV122" s="143"/>
-      <c r="AW122" s="144"/>
-      <c r="AX122" s="143"/>
-      <c r="AY122" s="143"/>
-      <c r="AZ122" s="143"/>
-      <c r="BA122" s="143"/>
-      <c r="BB122" s="143"/>
-      <c r="BC122" s="143"/>
-      <c r="BD122" s="143"/>
-      <c r="BE122" s="143"/>
-      <c r="BF122" s="143"/>
-      <c r="BG122" s="143"/>
-      <c r="BH122" s="143"/>
-      <c r="BI122" s="143"/>
-      <c r="BJ122" s="143"/>
-      <c r="BK122" s="143"/>
-      <c r="BL122" s="143"/>
-      <c r="BM122" s="143"/>
-      <c r="BN122" s="143"/>
-      <c r="BO122" s="143"/>
-      <c r="BP122" s="145"/>
-      <c r="BQ122" s="145"/>
-      <c r="BR122" s="146"/>
-      <c r="BS122" s="146"/>
-      <c r="BT122" s="146"/>
-      <c r="BU122" s="146"/>
-      <c r="BV122" s="146"/>
+      <c r="AR122" s="125"/>
+      <c r="AS122" s="125"/>
+      <c r="AT122" s="125"/>
+      <c r="AU122" s="125"/>
+      <c r="AV122" s="125"/>
+      <c r="AW122" s="126"/>
+      <c r="AX122" s="125"/>
+      <c r="AY122" s="125"/>
+      <c r="AZ122" s="125"/>
+      <c r="BA122" s="125"/>
+      <c r="BB122" s="125"/>
+      <c r="BC122" s="125"/>
+      <c r="BD122" s="125"/>
+      <c r="BE122" s="125"/>
+      <c r="BF122" s="125"/>
+      <c r="BG122" s="125"/>
+      <c r="BH122" s="125"/>
+      <c r="BI122" s="125"/>
+      <c r="BJ122" s="125"/>
+      <c r="BK122" s="125"/>
+      <c r="BL122" s="125"/>
+      <c r="BM122" s="125"/>
+      <c r="BN122" s="125"/>
+      <c r="BO122" s="125"/>
+      <c r="BP122" s="127"/>
+      <c r="BQ122" s="127"/>
+      <c r="BR122" s="128"/>
+      <c r="BS122" s="128"/>
+      <c r="BT122" s="128"/>
+      <c r="BU122" s="128"/>
+      <c r="BV122" s="128"/>
       <c r="BW122" s="11"/>
       <c r="BX122" s="13"/>
     </row>
@@ -33125,7 +33165,7 @@
       <c r="K123" s="67"/>
       <c r="L123" s="99"/>
       <c r="M123" s="11"/>
-      <c r="N123" s="135" t="s">
+      <c r="N123" s="117" t="s">
         <v>214</v>
       </c>
       <c r="O123" s="11"/>
@@ -33155,39 +33195,39 @@
       <c r="AM123" s="12"/>
       <c r="AN123" s="67"/>
       <c r="AO123" s="71"/>
-      <c r="AP123" s="142"/>
+      <c r="AP123" s="124"/>
       <c r="AQ123" s="66"/>
-      <c r="AR123" s="143"/>
-      <c r="AS123" s="143"/>
-      <c r="AT123" s="143"/>
-      <c r="AU123" s="143"/>
-      <c r="AV123" s="143"/>
-      <c r="AW123" s="144"/>
-      <c r="AX123" s="143"/>
-      <c r="AY123" s="143"/>
-      <c r="AZ123" s="143"/>
-      <c r="BA123" s="143"/>
-      <c r="BB123" s="143"/>
-      <c r="BC123" s="143"/>
-      <c r="BD123" s="143"/>
-      <c r="BE123" s="143"/>
-      <c r="BF123" s="143"/>
-      <c r="BG123" s="143"/>
-      <c r="BH123" s="143"/>
-      <c r="BI123" s="143"/>
-      <c r="BJ123" s="143"/>
-      <c r="BK123" s="143"/>
-      <c r="BL123" s="143"/>
-      <c r="BM123" s="143"/>
-      <c r="BN123" s="143"/>
-      <c r="BO123" s="143"/>
-      <c r="BP123" s="145"/>
-      <c r="BQ123" s="145"/>
-      <c r="BR123" s="146"/>
-      <c r="BS123" s="146"/>
-      <c r="BT123" s="146"/>
-      <c r="BU123" s="146"/>
-      <c r="BV123" s="146"/>
+      <c r="AR123" s="125"/>
+      <c r="AS123" s="125"/>
+      <c r="AT123" s="125"/>
+      <c r="AU123" s="125"/>
+      <c r="AV123" s="125"/>
+      <c r="AW123" s="126"/>
+      <c r="AX123" s="125"/>
+      <c r="AY123" s="125"/>
+      <c r="AZ123" s="125"/>
+      <c r="BA123" s="125"/>
+      <c r="BB123" s="125"/>
+      <c r="BC123" s="125"/>
+      <c r="BD123" s="125"/>
+      <c r="BE123" s="125"/>
+      <c r="BF123" s="125"/>
+      <c r="BG123" s="125"/>
+      <c r="BH123" s="125"/>
+      <c r="BI123" s="125"/>
+      <c r="BJ123" s="125"/>
+      <c r="BK123" s="125"/>
+      <c r="BL123" s="125"/>
+      <c r="BM123" s="125"/>
+      <c r="BN123" s="125"/>
+      <c r="BO123" s="125"/>
+      <c r="BP123" s="127"/>
+      <c r="BQ123" s="127"/>
+      <c r="BR123" s="128"/>
+      <c r="BS123" s="128"/>
+      <c r="BT123" s="128"/>
+      <c r="BU123" s="128"/>
+      <c r="BV123" s="128"/>
       <c r="BW123" s="11"/>
       <c r="BX123" s="13"/>
     </row>
@@ -33195,15 +33235,15 @@
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
-      <c r="D124" s="140"/>
+      <c r="D124" s="122"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
       <c r="H124" s="22"/>
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
-      <c r="K124" s="140"/>
-      <c r="L124" s="141"/>
+      <c r="K124" s="122"/>
+      <c r="L124" s="123"/>
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
       <c r="O124" s="22"/>
@@ -33270,195 +33310,195 @@
       <c r="BX124" s="24"/>
     </row>
     <row r="125" spans="1:76" ht="30.75" customHeight="1">
-      <c r="A125" s="129" t="s">
+      <c r="A125" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="118"/>
-      <c r="C125" s="118"/>
-      <c r="D125" s="118"/>
-      <c r="E125" s="119"/>
-      <c r="F125" s="133" t="str">
+      <c r="B125" s="142"/>
+      <c r="C125" s="142"/>
+      <c r="D125" s="142"/>
+      <c r="E125" s="147"/>
+      <c r="F125" s="149" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G125" s="118"/>
-      <c r="H125" s="118"/>
-      <c r="I125" s="118"/>
-      <c r="J125" s="118"/>
-      <c r="K125" s="118"/>
-      <c r="L125" s="118"/>
-      <c r="M125" s="118"/>
-      <c r="N125" s="118"/>
-      <c r="O125" s="118"/>
-      <c r="P125" s="118"/>
-      <c r="Q125" s="118"/>
-      <c r="R125" s="118"/>
-      <c r="S125" s="118"/>
-      <c r="T125" s="118"/>
-      <c r="U125" s="118"/>
-      <c r="V125" s="118"/>
-      <c r="W125" s="118"/>
-      <c r="X125" s="118"/>
-      <c r="Y125" s="118"/>
-      <c r="Z125" s="118"/>
-      <c r="AA125" s="118"/>
-      <c r="AB125" s="118"/>
-      <c r="AC125" s="118"/>
-      <c r="AD125" s="118"/>
-      <c r="AE125" s="118"/>
-      <c r="AF125" s="118"/>
-      <c r="AG125" s="118"/>
-      <c r="AH125" s="118"/>
-      <c r="AI125" s="118"/>
-      <c r="AJ125" s="118"/>
-      <c r="AK125" s="118"/>
-      <c r="AL125" s="118"/>
-      <c r="AM125" s="118"/>
-      <c r="AN125" s="118"/>
-      <c r="AO125" s="118"/>
-      <c r="AP125" s="118"/>
-      <c r="AQ125" s="118"/>
-      <c r="AR125" s="118"/>
-      <c r="AS125" s="118"/>
-      <c r="AT125" s="118"/>
-      <c r="AU125" s="118"/>
-      <c r="AV125" s="119"/>
-      <c r="AW125" s="126" t="s">
+      <c r="G125" s="142"/>
+      <c r="H125" s="142"/>
+      <c r="I125" s="142"/>
+      <c r="J125" s="142"/>
+      <c r="K125" s="142"/>
+      <c r="L125" s="142"/>
+      <c r="M125" s="142"/>
+      <c r="N125" s="142"/>
+      <c r="O125" s="142"/>
+      <c r="P125" s="142"/>
+      <c r="Q125" s="142"/>
+      <c r="R125" s="142"/>
+      <c r="S125" s="142"/>
+      <c r="T125" s="142"/>
+      <c r="U125" s="142"/>
+      <c r="V125" s="142"/>
+      <c r="W125" s="142"/>
+      <c r="X125" s="142"/>
+      <c r="Y125" s="142"/>
+      <c r="Z125" s="142"/>
+      <c r="AA125" s="142"/>
+      <c r="AB125" s="142"/>
+      <c r="AC125" s="142"/>
+      <c r="AD125" s="142"/>
+      <c r="AE125" s="142"/>
+      <c r="AF125" s="142"/>
+      <c r="AG125" s="142"/>
+      <c r="AH125" s="142"/>
+      <c r="AI125" s="142"/>
+      <c r="AJ125" s="142"/>
+      <c r="AK125" s="142"/>
+      <c r="AL125" s="142"/>
+      <c r="AM125" s="142"/>
+      <c r="AN125" s="142"/>
+      <c r="AO125" s="142"/>
+      <c r="AP125" s="142"/>
+      <c r="AQ125" s="142"/>
+      <c r="AR125" s="142"/>
+      <c r="AS125" s="142"/>
+      <c r="AT125" s="142"/>
+      <c r="AU125" s="142"/>
+      <c r="AV125" s="147"/>
+      <c r="AW125" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX125" s="118"/>
-      <c r="AY125" s="118"/>
-      <c r="AZ125" s="118"/>
-      <c r="BA125" s="119"/>
-      <c r="BB125" s="124" t="str">
+      <c r="AX125" s="142"/>
+      <c r="AY125" s="142"/>
+      <c r="AZ125" s="142"/>
+      <c r="BA125" s="147"/>
+      <c r="BB125" s="141" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC125" s="118"/>
-      <c r="BD125" s="118"/>
-      <c r="BE125" s="118"/>
-      <c r="BF125" s="118"/>
-      <c r="BG125" s="118"/>
-      <c r="BH125" s="118"/>
-      <c r="BI125" s="118"/>
-      <c r="BJ125" s="119"/>
-      <c r="BK125" s="126" t="s">
+      <c r="BC125" s="142"/>
+      <c r="BD125" s="142"/>
+      <c r="BE125" s="142"/>
+      <c r="BF125" s="142"/>
+      <c r="BG125" s="142"/>
+      <c r="BH125" s="142"/>
+      <c r="BI125" s="142"/>
+      <c r="BJ125" s="147"/>
+      <c r="BK125" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL125" s="118"/>
-      <c r="BM125" s="118"/>
-      <c r="BN125" s="118"/>
-      <c r="BO125" s="119"/>
-      <c r="BP125" s="124" t="str">
+      <c r="BL125" s="142"/>
+      <c r="BM125" s="142"/>
+      <c r="BN125" s="142"/>
+      <c r="BO125" s="147"/>
+      <c r="BP125" s="141" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ125" s="118"/>
-      <c r="BR125" s="118"/>
-      <c r="BS125" s="118"/>
-      <c r="BT125" s="118"/>
-      <c r="BU125" s="118"/>
-      <c r="BV125" s="118"/>
-      <c r="BW125" s="118"/>
-      <c r="BX125" s="125"/>
+      <c r="BQ125" s="142"/>
+      <c r="BR125" s="142"/>
+      <c r="BS125" s="142"/>
+      <c r="BT125" s="142"/>
+      <c r="BU125" s="142"/>
+      <c r="BV125" s="142"/>
+      <c r="BW125" s="142"/>
+      <c r="BX125" s="143"/>
     </row>
     <row r="126" spans="1:76" ht="30.75" customHeight="1">
-      <c r="A126" s="130" t="s">
+      <c r="A126" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="122"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="122"/>
-      <c r="E126" s="123"/>
-      <c r="F126" s="131" t="str">
+      <c r="B126" s="138"/>
+      <c r="C126" s="138"/>
+      <c r="D126" s="138"/>
+      <c r="E126" s="139"/>
+      <c r="F126" s="151" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
-      <c r="G126" s="122"/>
-      <c r="H126" s="122"/>
-      <c r="I126" s="122"/>
-      <c r="J126" s="122"/>
-      <c r="K126" s="122"/>
-      <c r="L126" s="122"/>
-      <c r="M126" s="122"/>
-      <c r="N126" s="122"/>
-      <c r="O126" s="122"/>
-      <c r="P126" s="122"/>
-      <c r="Q126" s="122"/>
-      <c r="R126" s="122"/>
-      <c r="S126" s="122"/>
-      <c r="T126" s="122"/>
-      <c r="U126" s="122"/>
-      <c r="V126" s="122"/>
-      <c r="W126" s="122"/>
-      <c r="X126" s="122"/>
-      <c r="Y126" s="123"/>
-      <c r="Z126" s="127" t="s">
+      <c r="G126" s="138"/>
+      <c r="H126" s="138"/>
+      <c r="I126" s="138"/>
+      <c r="J126" s="138"/>
+      <c r="K126" s="138"/>
+      <c r="L126" s="138"/>
+      <c r="M126" s="138"/>
+      <c r="N126" s="138"/>
+      <c r="O126" s="138"/>
+      <c r="P126" s="138"/>
+      <c r="Q126" s="138"/>
+      <c r="R126" s="138"/>
+      <c r="S126" s="138"/>
+      <c r="T126" s="138"/>
+      <c r="U126" s="138"/>
+      <c r="V126" s="138"/>
+      <c r="W126" s="138"/>
+      <c r="X126" s="138"/>
+      <c r="Y126" s="139"/>
+      <c r="Z126" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA126" s="122"/>
-      <c r="AB126" s="122"/>
-      <c r="AC126" s="122"/>
-      <c r="AD126" s="123"/>
-      <c r="AE126" s="131" t="str">
+      <c r="AA126" s="138"/>
+      <c r="AB126" s="138"/>
+      <c r="AC126" s="138"/>
+      <c r="AD126" s="139"/>
+      <c r="AE126" s="151" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ詳細</v>
       </c>
-      <c r="AF126" s="122"/>
-      <c r="AG126" s="122"/>
-      <c r="AH126" s="122"/>
-      <c r="AI126" s="122"/>
-      <c r="AJ126" s="122"/>
-      <c r="AK126" s="122"/>
-      <c r="AL126" s="122"/>
-      <c r="AM126" s="122"/>
-      <c r="AN126" s="122"/>
-      <c r="AO126" s="122"/>
-      <c r="AP126" s="122"/>
-      <c r="AQ126" s="122"/>
-      <c r="AR126" s="122"/>
-      <c r="AS126" s="122"/>
-      <c r="AT126" s="122"/>
-      <c r="AU126" s="122"/>
-      <c r="AV126" s="123"/>
-      <c r="AW126" s="127" t="s">
+      <c r="AF126" s="138"/>
+      <c r="AG126" s="138"/>
+      <c r="AH126" s="138"/>
+      <c r="AI126" s="138"/>
+      <c r="AJ126" s="138"/>
+      <c r="AK126" s="138"/>
+      <c r="AL126" s="138"/>
+      <c r="AM126" s="138"/>
+      <c r="AN126" s="138"/>
+      <c r="AO126" s="138"/>
+      <c r="AP126" s="138"/>
+      <c r="AQ126" s="138"/>
+      <c r="AR126" s="138"/>
+      <c r="AS126" s="138"/>
+      <c r="AT126" s="138"/>
+      <c r="AU126" s="138"/>
+      <c r="AV126" s="139"/>
+      <c r="AW126" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX126" s="122"/>
-      <c r="AY126" s="122"/>
-      <c r="AZ126" s="122"/>
-      <c r="BA126" s="123"/>
-      <c r="BB126" s="121" t="str">
+      <c r="AX126" s="138"/>
+      <c r="AY126" s="138"/>
+      <c r="AZ126" s="138"/>
+      <c r="BA126" s="139"/>
+      <c r="BB126" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/11/11/</v>
       </c>
-      <c r="BC126" s="122"/>
-      <c r="BD126" s="122"/>
-      <c r="BE126" s="122"/>
-      <c r="BF126" s="122"/>
-      <c r="BG126" s="122"/>
-      <c r="BH126" s="122"/>
-      <c r="BI126" s="122"/>
-      <c r="BJ126" s="123"/>
-      <c r="BK126" s="127" t="s">
+      <c r="BC126" s="138"/>
+      <c r="BD126" s="138"/>
+      <c r="BE126" s="138"/>
+      <c r="BF126" s="138"/>
+      <c r="BG126" s="138"/>
+      <c r="BH126" s="138"/>
+      <c r="BI126" s="138"/>
+      <c r="BJ126" s="139"/>
+      <c r="BK126" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL126" s="122"/>
-      <c r="BM126" s="122"/>
-      <c r="BN126" s="122"/>
-      <c r="BO126" s="123"/>
-      <c r="BP126" s="121" t="str">
+      <c r="BL126" s="138"/>
+      <c r="BM126" s="138"/>
+      <c r="BN126" s="138"/>
+      <c r="BO126" s="139"/>
+      <c r="BP126" s="137" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
       </c>
-      <c r="BQ126" s="122"/>
-      <c r="BR126" s="122"/>
-      <c r="BS126" s="122"/>
-      <c r="BT126" s="122"/>
-      <c r="BU126" s="122"/>
-      <c r="BV126" s="122"/>
-      <c r="BW126" s="122"/>
-      <c r="BX126" s="134"/>
+      <c r="BQ126" s="138"/>
+      <c r="BR126" s="138"/>
+      <c r="BS126" s="138"/>
+      <c r="BT126" s="138"/>
+      <c r="BU126" s="138"/>
+      <c r="BV126" s="138"/>
+      <c r="BW126" s="138"/>
+      <c r="BX126" s="144"/>
     </row>
     <row r="127" spans="1:76" ht="13.5">
       <c r="A127" s="9" t="s">
@@ -34154,7 +34194,7 @@
       <c r="A135" s="14"/>
       <c r="B135" s="11"/>
       <c r="C135" s="15"/>
-      <c r="D135" s="150" t="s">
+      <c r="D135" s="132" t="s">
         <v>213</v>
       </c>
       <c r="E135" s="108"/>
@@ -34166,7 +34206,7 @@
       <c r="K135" s="108"/>
       <c r="L135" s="108"/>
       <c r="M135" s="108"/>
-      <c r="N135" s="151" t="s">
+      <c r="N135" s="133" t="s">
         <v>225</v>
       </c>
       <c r="O135" s="108"/>
@@ -34178,7 +34218,7 @@
       <c r="U135" s="49"/>
       <c r="V135" s="49"/>
       <c r="W135" s="49"/>
-      <c r="X135" s="151" t="s">
+      <c r="X135" s="133" t="s">
         <v>226</v>
       </c>
       <c r="Y135" s="49"/>
@@ -34259,7 +34299,7 @@
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="11"/>
-      <c r="S136" s="135" t="s">
+      <c r="S136" s="117" t="s">
         <v>230</v>
       </c>
       <c r="T136" s="11"/>
@@ -34450,7 +34490,7 @@
       <c r="AM138" s="12"/>
       <c r="AN138" s="11"/>
       <c r="AO138" s="71"/>
-      <c r="AP138" s="150" t="s">
+      <c r="AP138" s="132" t="s">
         <v>227</v>
       </c>
       <c r="AQ138" s="108"/>
@@ -34462,7 +34502,7 @@
       <c r="AW138" s="108"/>
       <c r="AX138" s="108"/>
       <c r="AY138" s="108"/>
-      <c r="AZ138" s="151" t="s">
+      <c r="AZ138" s="133" t="s">
         <v>228</v>
       </c>
       <c r="BA138" s="108"/>
@@ -34474,7 +34514,7 @@
       <c r="BG138" s="49"/>
       <c r="BH138" s="49"/>
       <c r="BI138" s="49"/>
-      <c r="BJ138" s="151" t="s">
+      <c r="BJ138" s="133" t="s">
         <v>229</v>
       </c>
       <c r="BK138" s="49"/>
@@ -34536,41 +34576,41 @@
       <c r="AM139" s="12"/>
       <c r="AN139" s="15"/>
       <c r="AO139" s="71"/>
-      <c r="AP139" s="142"/>
-      <c r="AQ139" s="148"/>
-      <c r="AR139" s="148"/>
-      <c r="AS139" s="148"/>
-      <c r="AT139" s="148"/>
-      <c r="AU139" s="148"/>
-      <c r="AV139" s="148"/>
-      <c r="AW139" s="148"/>
-      <c r="AX139" s="148"/>
-      <c r="AY139" s="148"/>
-      <c r="AZ139" s="149"/>
-      <c r="BA139" s="148"/>
-      <c r="BB139" s="148"/>
-      <c r="BC139" s="148"/>
-      <c r="BD139" s="152" t="s">
+      <c r="AP139" s="124"/>
+      <c r="AQ139" s="130"/>
+      <c r="AR139" s="130"/>
+      <c r="AS139" s="130"/>
+      <c r="AT139" s="130"/>
+      <c r="AU139" s="130"/>
+      <c r="AV139" s="130"/>
+      <c r="AW139" s="130"/>
+      <c r="AX139" s="130"/>
+      <c r="AY139" s="130"/>
+      <c r="AZ139" s="131"/>
+      <c r="BA139" s="130"/>
+      <c r="BB139" s="130"/>
+      <c r="BC139" s="130"/>
+      <c r="BD139" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="BE139" s="145"/>
-      <c r="BF139" s="145"/>
-      <c r="BG139" s="145"/>
-      <c r="BH139" s="145"/>
-      <c r="BI139" s="145"/>
-      <c r="BJ139" s="143"/>
-      <c r="BK139" s="145"/>
-      <c r="BL139" s="145"/>
-      <c r="BM139" s="145"/>
-      <c r="BN139" s="145"/>
-      <c r="BO139" s="145"/>
-      <c r="BP139" s="145"/>
-      <c r="BQ139" s="145"/>
-      <c r="BR139" s="146"/>
-      <c r="BS139" s="146"/>
-      <c r="BT139" s="146"/>
-      <c r="BU139" s="146"/>
-      <c r="BV139" s="146"/>
+      <c r="BE139" s="127"/>
+      <c r="BF139" s="127"/>
+      <c r="BG139" s="127"/>
+      <c r="BH139" s="127"/>
+      <c r="BI139" s="127"/>
+      <c r="BJ139" s="125"/>
+      <c r="BK139" s="127"/>
+      <c r="BL139" s="127"/>
+      <c r="BM139" s="127"/>
+      <c r="BN139" s="127"/>
+      <c r="BO139" s="127"/>
+      <c r="BP139" s="127"/>
+      <c r="BQ139" s="127"/>
+      <c r="BR139" s="128"/>
+      <c r="BS139" s="128"/>
+      <c r="BT139" s="128"/>
+      <c r="BU139" s="128"/>
+      <c r="BV139" s="128"/>
       <c r="BW139" s="11"/>
       <c r="BX139" s="13"/>
     </row>
@@ -36416,13 +36456,13 @@
       <c r="BX162" s="24"/>
     </row>
     <row r="163" spans="1:76" ht="31.5" customHeight="1">
-      <c r="A163" s="129" t="s">
+      <c r="A163" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="118"/>
-      <c r="C163" s="118"/>
-      <c r="D163" s="118"/>
-      <c r="E163" s="119"/>
+      <c r="B163" s="142"/>
+      <c r="C163" s="142"/>
+      <c r="D163" s="142"/>
+      <c r="E163" s="147"/>
       <c r="F163" s="25" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
@@ -36469,32 +36509,32 @@
       <c r="AT163" s="1"/>
       <c r="AU163" s="1"/>
       <c r="AV163" s="2"/>
-      <c r="AW163" s="126" t="s">
+      <c r="AW163" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="AX163" s="118"/>
-      <c r="AY163" s="118"/>
-      <c r="AZ163" s="118"/>
-      <c r="BA163" s="119"/>
-      <c r="BB163" s="124" t="str">
+      <c r="AX163" s="142"/>
+      <c r="AY163" s="142"/>
+      <c r="AZ163" s="142"/>
+      <c r="BA163" s="147"/>
+      <c r="BB163" s="141" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC163" s="118"/>
-      <c r="BD163" s="118"/>
-      <c r="BE163" s="118"/>
-      <c r="BF163" s="118"/>
-      <c r="BG163" s="118"/>
-      <c r="BH163" s="118"/>
-      <c r="BI163" s="118"/>
-      <c r="BJ163" s="119"/>
-      <c r="BK163" s="126" t="s">
+      <c r="BC163" s="142"/>
+      <c r="BD163" s="142"/>
+      <c r="BE163" s="142"/>
+      <c r="BF163" s="142"/>
+      <c r="BG163" s="142"/>
+      <c r="BH163" s="142"/>
+      <c r="BI163" s="142"/>
+      <c r="BJ163" s="147"/>
+      <c r="BK163" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="BL163" s="118"/>
-      <c r="BM163" s="118"/>
-      <c r="BN163" s="118"/>
-      <c r="BO163" s="119"/>
+      <c r="BL163" s="142"/>
+      <c r="BM163" s="142"/>
+      <c r="BN163" s="142"/>
+      <c r="BO163" s="147"/>
       <c r="BP163" s="8" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
@@ -36509,43 +36549,43 @@
       <c r="BX163" s="5"/>
     </row>
     <row r="164" spans="1:76" ht="31.5" customHeight="1">
-      <c r="A164" s="130" t="s">
+      <c r="A164" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="122"/>
-      <c r="C164" s="122"/>
-      <c r="D164" s="122"/>
-      <c r="E164" s="123"/>
-      <c r="F164" s="131" t="str">
+      <c r="B164" s="138"/>
+      <c r="C164" s="138"/>
+      <c r="D164" s="138"/>
+      <c r="E164" s="139"/>
+      <c r="F164" s="151" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
-      <c r="G164" s="122"/>
-      <c r="H164" s="122"/>
-      <c r="I164" s="122"/>
-      <c r="J164" s="122"/>
-      <c r="K164" s="122"/>
-      <c r="L164" s="122"/>
-      <c r="M164" s="122"/>
-      <c r="N164" s="122"/>
-      <c r="O164" s="122"/>
-      <c r="P164" s="122"/>
-      <c r="Q164" s="122"/>
-      <c r="R164" s="122"/>
-      <c r="S164" s="122"/>
-      <c r="T164" s="122"/>
-      <c r="U164" s="122"/>
-      <c r="V164" s="122"/>
-      <c r="W164" s="122"/>
-      <c r="X164" s="122"/>
-      <c r="Y164" s="123"/>
-      <c r="Z164" s="127" t="s">
+      <c r="G164" s="138"/>
+      <c r="H164" s="138"/>
+      <c r="I164" s="138"/>
+      <c r="J164" s="138"/>
+      <c r="K164" s="138"/>
+      <c r="L164" s="138"/>
+      <c r="M164" s="138"/>
+      <c r="N164" s="138"/>
+      <c r="O164" s="138"/>
+      <c r="P164" s="138"/>
+      <c r="Q164" s="138"/>
+      <c r="R164" s="138"/>
+      <c r="S164" s="138"/>
+      <c r="T164" s="138"/>
+      <c r="U164" s="138"/>
+      <c r="V164" s="138"/>
+      <c r="W164" s="138"/>
+      <c r="X164" s="138"/>
+      <c r="Y164" s="139"/>
+      <c r="Z164" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AA164" s="122"/>
-      <c r="AB164" s="122"/>
-      <c r="AC164" s="122"/>
-      <c r="AD164" s="123"/>
+      <c r="AA164" s="138"/>
+      <c r="AB164" s="138"/>
+      <c r="AC164" s="138"/>
+      <c r="AD164" s="139"/>
       <c r="AE164" s="26" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ詳細</v>
@@ -36567,32 +36607,32 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
       <c r="AV164" s="4"/>
-      <c r="AW164" s="127" t="s">
+      <c r="AW164" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AX164" s="122"/>
-      <c r="AY164" s="122"/>
-      <c r="AZ164" s="122"/>
-      <c r="BA164" s="123"/>
-      <c r="BB164" s="121" t="str">
+      <c r="AX164" s="138"/>
+      <c r="AY164" s="138"/>
+      <c r="AZ164" s="138"/>
+      <c r="BA164" s="139"/>
+      <c r="BB164" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
         <v>2019/11/11/</v>
       </c>
-      <c r="BC164" s="122"/>
-      <c r="BD164" s="122"/>
-      <c r="BE164" s="122"/>
-      <c r="BF164" s="122"/>
-      <c r="BG164" s="122"/>
-      <c r="BH164" s="122"/>
-      <c r="BI164" s="122"/>
-      <c r="BJ164" s="123"/>
-      <c r="BK164" s="127" t="s">
+      <c r="BC164" s="138"/>
+      <c r="BD164" s="138"/>
+      <c r="BE164" s="138"/>
+      <c r="BF164" s="138"/>
+      <c r="BG164" s="138"/>
+      <c r="BH164" s="138"/>
+      <c r="BI164" s="138"/>
+      <c r="BJ164" s="139"/>
+      <c r="BK164" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="BL164" s="122"/>
-      <c r="BM164" s="122"/>
-      <c r="BN164" s="122"/>
-      <c r="BO164" s="123"/>
+      <c r="BL164" s="138"/>
+      <c r="BM164" s="138"/>
+      <c r="BN164" s="138"/>
+      <c r="BO164" s="139"/>
       <c r="BP164" s="7" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
         <v>岩田侑大</v>
@@ -38811,7 +38851,7 @@
       <c r="O192" s="94"/>
       <c r="P192" s="94"/>
       <c r="Q192" s="94"/>
-      <c r="R192" s="153" t="s">
+      <c r="R192" s="135" t="s">
         <v>232</v>
       </c>
       <c r="S192" s="94"/>
@@ -39045,7 +39085,7 @@
       <c r="A195" s="14"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
-      <c r="D195" s="150" t="s">
+      <c r="D195" s="132" t="s">
         <v>213</v>
       </c>
       <c r="E195" s="108"/>
@@ -39061,7 +39101,7 @@
       <c r="O195" s="108"/>
       <c r="P195" s="108"/>
       <c r="Q195" s="108"/>
-      <c r="R195" s="154" t="s">
+      <c r="R195" s="136" t="s">
         <v>232</v>
       </c>
       <c r="S195" s="49"/>
@@ -39075,7 +39115,7 @@
       <c r="AA195" s="49"/>
       <c r="AB195" s="49"/>
       <c r="AC195" s="49"/>
-      <c r="AD195" s="154" t="s">
+      <c r="AD195" s="136" t="s">
         <v>232</v>
       </c>
       <c r="AE195" s="49"/>
@@ -39134,7 +39174,7 @@
       <c r="S196" s="31"/>
       <c r="T196" s="31"/>
       <c r="U196" s="31"/>
-      <c r="V196" s="139" t="s">
+      <c r="V196" s="121" t="s">
         <v>231</v>
       </c>
       <c r="W196" s="31"/>
@@ -39332,49 +39372,18 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="BK125:BO125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="F126:Y126"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="Z126:AD126"/>
-    <mergeCell ref="AE126:AV126"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F125:AV125"/>
-    <mergeCell ref="AW125:BA125"/>
-    <mergeCell ref="BB125:BJ125"/>
-    <mergeCell ref="AE88:AV88"/>
-    <mergeCell ref="Z88:AD88"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="F164:Y164"/>
-    <mergeCell ref="Z164:AD164"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="BP88:BX88"/>
-    <mergeCell ref="BP87:BX87"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="BP126:BX126"/>
-    <mergeCell ref="BP125:BX125"/>
-    <mergeCell ref="BK126:BO126"/>
-    <mergeCell ref="AW164:BA164"/>
-    <mergeCell ref="AW163:BA163"/>
-    <mergeCell ref="BB163:BJ163"/>
-    <mergeCell ref="BB164:BJ164"/>
-    <mergeCell ref="AW126:BA126"/>
-    <mergeCell ref="BK164:BO164"/>
-    <mergeCell ref="BK163:BO163"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="F88:Y88"/>
-    <mergeCell ref="BB126:BJ126"/>
-    <mergeCell ref="F53:Y53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="F87:AV87"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="AW88:BA88"/>
+    <mergeCell ref="AW87:BA87"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BK88:BO88"/>
+    <mergeCell ref="BK87:BO87"/>
+    <mergeCell ref="BB88:BJ88"/>
+    <mergeCell ref="BB87:BJ87"/>
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="BK53:BO53"/>
     <mergeCell ref="Z1:AD1"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="BP2:BX2"/>
@@ -39388,18 +39397,49 @@
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BK88:BO88"/>
-    <mergeCell ref="BK87:BO87"/>
-    <mergeCell ref="BB88:BJ88"/>
-    <mergeCell ref="BB87:BJ87"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="AW88:BA88"/>
-    <mergeCell ref="AW87:BA87"/>
-    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="BP87:BX87"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="BP126:BX126"/>
+    <mergeCell ref="BP125:BX125"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="F164:Y164"/>
+    <mergeCell ref="Z164:AD164"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="BP88:BX88"/>
+    <mergeCell ref="BK126:BO126"/>
+    <mergeCell ref="AW164:BA164"/>
+    <mergeCell ref="AW163:BA163"/>
+    <mergeCell ref="BB163:BJ163"/>
+    <mergeCell ref="BB164:BJ164"/>
+    <mergeCell ref="AW126:BA126"/>
+    <mergeCell ref="BK164:BO164"/>
+    <mergeCell ref="BK163:BO163"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:Y88"/>
+    <mergeCell ref="BB126:BJ126"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F125:AV125"/>
+    <mergeCell ref="AW125:BA125"/>
+    <mergeCell ref="BB125:BJ125"/>
+    <mergeCell ref="AE88:AV88"/>
+    <mergeCell ref="Z88:AD88"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="F53:Y53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="F87:AV87"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="BK125:BO125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="F126:Y126"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="Z126:AD126"/>
+    <mergeCell ref="AE126:AV126"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書（管理システム).xlsx
+++ b/設計書/02.詳細設計/01.プログラム仕様書/プログラム仕様書（管理システム).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\02.詳細設計\01.プログラム仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECAE8CA-6004-4317-8914-5F495FECFBA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A7493-6A2C-46C6-82DC-1E2A8FAEE559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="237">
   <si>
     <t>システム名</t>
   </si>
@@ -904,12 +904,26 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>2019/11/12</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>岩田侑大</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -970,13 +984,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1595,18 +1602,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1614,20 +1614,27 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,69 +1985,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="154" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="153" t="s">
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="142"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="142"/>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="142"/>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="142"/>
-      <c r="AT1" s="142"/>
-      <c r="AU1" s="142"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="146" t="s">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="141"/>
+      <c r="AT1" s="141"/>
+      <c r="AU1" s="141"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="142"/>
-      <c r="AY1" s="142"/>
-      <c r="AZ1" s="142"/>
-      <c r="BA1" s="147"/>
+      <c r="AX1" s="141"/>
+      <c r="AY1" s="141"/>
+      <c r="AZ1" s="141"/>
+      <c r="BA1" s="144"/>
       <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
@@ -2052,36 +2059,36 @@
       <c r="BH1" s="138"/>
       <c r="BI1" s="138"/>
       <c r="BJ1" s="139"/>
-      <c r="BK1" s="146" t="s">
+      <c r="BK1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="142"/>
-      <c r="BM1" s="142"/>
-      <c r="BN1" s="142"/>
-      <c r="BO1" s="147"/>
-      <c r="BP1" s="141" t="s">
+      <c r="BL1" s="141"/>
+      <c r="BM1" s="141"/>
+      <c r="BN1" s="141"/>
+      <c r="BO1" s="144"/>
+      <c r="BP1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="142"/>
-      <c r="BR1" s="142"/>
-      <c r="BS1" s="142"/>
-      <c r="BT1" s="142"/>
-      <c r="BU1" s="142"/>
-      <c r="BV1" s="142"/>
-      <c r="BW1" s="142"/>
-      <c r="BX1" s="143"/>
+      <c r="BQ1" s="141"/>
+      <c r="BR1" s="141"/>
+      <c r="BS1" s="141"/>
+      <c r="BT1" s="141"/>
+      <c r="BU1" s="141"/>
+      <c r="BV1" s="141"/>
+      <c r="BW1" s="141"/>
+      <c r="BX1" s="142"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
       <c r="E2" s="139"/>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="147" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="138"/>
@@ -2103,7 +2110,7 @@
       <c r="W2" s="138"/>
       <c r="X2" s="138"/>
       <c r="Y2" s="139"/>
-      <c r="Z2" s="140" t="s">
+      <c r="Z2" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA2" s="138"/>
@@ -2130,7 +2137,7 @@
       <c r="AT2" s="138"/>
       <c r="AU2" s="138"/>
       <c r="AV2" s="139"/>
-      <c r="AW2" s="140" t="s">
+      <c r="AW2" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX2" s="138"/>
@@ -2146,22 +2153,22 @@
       <c r="BH2" s="138"/>
       <c r="BI2" s="138"/>
       <c r="BJ2" s="139"/>
-      <c r="BK2" s="140" t="s">
+      <c r="BK2" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL2" s="138"/>
       <c r="BM2" s="138"/>
       <c r="BN2" s="138"/>
       <c r="BO2" s="139"/>
-      <c r="BP2" s="141"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="142"/>
-      <c r="BU2" s="142"/>
-      <c r="BV2" s="142"/>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="143"/>
+      <c r="BP2" s="140"/>
+      <c r="BQ2" s="141"/>
+      <c r="BR2" s="141"/>
+      <c r="BS2" s="141"/>
+      <c r="BT2" s="141"/>
+      <c r="BU2" s="141"/>
+      <c r="BV2" s="141"/>
+      <c r="BW2" s="141"/>
+      <c r="BX2" s="142"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -6100,109 +6107,109 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="149" t="str">
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="153" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="142"/>
-      <c r="S52" s="142"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="142"/>
-      <c r="V52" s="142"/>
-      <c r="W52" s="142"/>
-      <c r="X52" s="142"/>
-      <c r="Y52" s="142"/>
-      <c r="Z52" s="142"/>
-      <c r="AA52" s="142"/>
-      <c r="AB52" s="142"/>
-      <c r="AC52" s="142"/>
-      <c r="AD52" s="142"/>
-      <c r="AE52" s="142"/>
-      <c r="AF52" s="142"/>
-      <c r="AG52" s="142"/>
-      <c r="AH52" s="142"/>
-      <c r="AI52" s="142"/>
-      <c r="AJ52" s="142"/>
-      <c r="AK52" s="142"/>
-      <c r="AL52" s="142"/>
-      <c r="AM52" s="142"/>
-      <c r="AN52" s="142"/>
-      <c r="AO52" s="142"/>
-      <c r="AP52" s="142"/>
-      <c r="AQ52" s="142"/>
-      <c r="AR52" s="142"/>
-      <c r="AS52" s="142"/>
-      <c r="AT52" s="142"/>
-      <c r="AU52" s="142"/>
-      <c r="AV52" s="147"/>
-      <c r="AW52" s="146" t="s">
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
+      <c r="P52" s="141"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="141"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="141"/>
+      <c r="V52" s="141"/>
+      <c r="W52" s="141"/>
+      <c r="X52" s="141"/>
+      <c r="Y52" s="141"/>
+      <c r="Z52" s="141"/>
+      <c r="AA52" s="141"/>
+      <c r="AB52" s="141"/>
+      <c r="AC52" s="141"/>
+      <c r="AD52" s="141"/>
+      <c r="AE52" s="141"/>
+      <c r="AF52" s="141"/>
+      <c r="AG52" s="141"/>
+      <c r="AH52" s="141"/>
+      <c r="AI52" s="141"/>
+      <c r="AJ52" s="141"/>
+      <c r="AK52" s="141"/>
+      <c r="AL52" s="141"/>
+      <c r="AM52" s="141"/>
+      <c r="AN52" s="141"/>
+      <c r="AO52" s="141"/>
+      <c r="AP52" s="141"/>
+      <c r="AQ52" s="141"/>
+      <c r="AR52" s="141"/>
+      <c r="AS52" s="141"/>
+      <c r="AT52" s="141"/>
+      <c r="AU52" s="141"/>
+      <c r="AV52" s="144"/>
+      <c r="AW52" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="142"/>
-      <c r="AY52" s="142"/>
-      <c r="AZ52" s="142"/>
-      <c r="BA52" s="147"/>
-      <c r="BB52" s="141" t="str">
+      <c r="AX52" s="141"/>
+      <c r="AY52" s="141"/>
+      <c r="AZ52" s="141"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="140" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="142"/>
-      <c r="BD52" s="142"/>
-      <c r="BE52" s="142"/>
-      <c r="BF52" s="142"/>
-      <c r="BG52" s="142"/>
-      <c r="BH52" s="142"/>
-      <c r="BI52" s="142"/>
-      <c r="BJ52" s="147"/>
-      <c r="BK52" s="146" t="s">
+      <c r="BC52" s="141"/>
+      <c r="BD52" s="141"/>
+      <c r="BE52" s="141"/>
+      <c r="BF52" s="141"/>
+      <c r="BG52" s="141"/>
+      <c r="BH52" s="141"/>
+      <c r="BI52" s="141"/>
+      <c r="BJ52" s="144"/>
+      <c r="BK52" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="142"/>
-      <c r="BM52" s="142"/>
-      <c r="BN52" s="142"/>
-      <c r="BO52" s="147"/>
-      <c r="BP52" s="141" t="str">
+      <c r="BL52" s="141"/>
+      <c r="BM52" s="141"/>
+      <c r="BN52" s="141"/>
+      <c r="BO52" s="144"/>
+      <c r="BP52" s="140" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="142"/>
-      <c r="BR52" s="142"/>
-      <c r="BS52" s="142"/>
-      <c r="BT52" s="142"/>
-      <c r="BU52" s="142"/>
-      <c r="BV52" s="142"/>
-      <c r="BW52" s="142"/>
-      <c r="BX52" s="143"/>
+      <c r="BQ52" s="141"/>
+      <c r="BR52" s="141"/>
+      <c r="BS52" s="141"/>
+      <c r="BT52" s="141"/>
+      <c r="BU52" s="141"/>
+      <c r="BV52" s="141"/>
+      <c r="BW52" s="141"/>
+      <c r="BX52" s="142"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="145" t="s">
+      <c r="A53" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
       <c r="D53" s="138"/>
       <c r="E53" s="139"/>
-      <c r="F53" s="151" t="str">
+      <c r="F53" s="147" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
@@ -6225,14 +6232,14 @@
       <c r="W53" s="138"/>
       <c r="X53" s="138"/>
       <c r="Y53" s="139"/>
-      <c r="Z53" s="140" t="s">
+      <c r="Z53" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA53" s="138"/>
       <c r="AB53" s="138"/>
       <c r="AC53" s="138"/>
       <c r="AD53" s="139"/>
-      <c r="AE53" s="151" t="str">
+      <c r="AE53" s="147" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>ログイン画面</v>
       </c>
@@ -6253,7 +6260,7 @@
       <c r="AT53" s="138"/>
       <c r="AU53" s="138"/>
       <c r="AV53" s="139"/>
-      <c r="AW53" s="140" t="s">
+      <c r="AW53" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX53" s="138"/>
@@ -6272,7 +6279,7 @@
       <c r="BH53" s="138"/>
       <c r="BI53" s="138"/>
       <c r="BJ53" s="139"/>
-      <c r="BK53" s="140" t="s">
+      <c r="BK53" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL53" s="138"/>
@@ -6290,7 +6297,7 @@
       <c r="BU53" s="138"/>
       <c r="BV53" s="138"/>
       <c r="BW53" s="138"/>
-      <c r="BX53" s="144"/>
+      <c r="BX53" s="154"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -8929,28 +8936,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE1:AV1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="F53:Y53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="F52:AV52"/>
     <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="BP2:BX2"/>
@@ -8959,6 +8944,28 @@
     <mergeCell ref="BP52:BX52"/>
     <mergeCell ref="BB53:BJ53"/>
     <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BB52:BJ52"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="F53:Y53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE1:AV1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8984,69 +8991,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="154" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="153" t="s">
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="142"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="142"/>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="142"/>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="142"/>
-      <c r="AT1" s="142"/>
-      <c r="AU1" s="142"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="146" t="s">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="141"/>
+      <c r="AT1" s="141"/>
+      <c r="AU1" s="141"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="142"/>
-      <c r="AY1" s="142"/>
-      <c r="AZ1" s="142"/>
-      <c r="BA1" s="147"/>
+      <c r="AX1" s="141"/>
+      <c r="AY1" s="141"/>
+      <c r="AZ1" s="141"/>
+      <c r="BA1" s="144"/>
       <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
@@ -9058,36 +9065,36 @@
       <c r="BH1" s="138"/>
       <c r="BI1" s="138"/>
       <c r="BJ1" s="139"/>
-      <c r="BK1" s="146" t="s">
+      <c r="BK1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="142"/>
-      <c r="BM1" s="142"/>
-      <c r="BN1" s="142"/>
-      <c r="BO1" s="147"/>
-      <c r="BP1" s="141" t="s">
+      <c r="BL1" s="141"/>
+      <c r="BM1" s="141"/>
+      <c r="BN1" s="141"/>
+      <c r="BO1" s="144"/>
+      <c r="BP1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="142"/>
-      <c r="BR1" s="142"/>
-      <c r="BS1" s="142"/>
-      <c r="BT1" s="142"/>
-      <c r="BU1" s="142"/>
-      <c r="BV1" s="142"/>
-      <c r="BW1" s="142"/>
-      <c r="BX1" s="143"/>
+      <c r="BQ1" s="141"/>
+      <c r="BR1" s="141"/>
+      <c r="BS1" s="141"/>
+      <c r="BT1" s="141"/>
+      <c r="BU1" s="141"/>
+      <c r="BV1" s="141"/>
+      <c r="BW1" s="141"/>
+      <c r="BX1" s="142"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
       <c r="E2" s="139"/>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="147" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="138"/>
@@ -9109,7 +9116,7 @@
       <c r="W2" s="138"/>
       <c r="X2" s="138"/>
       <c r="Y2" s="139"/>
-      <c r="Z2" s="140" t="s">
+      <c r="Z2" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA2" s="138"/>
@@ -9136,7 +9143,7 @@
       <c r="AT2" s="138"/>
       <c r="AU2" s="138"/>
       <c r="AV2" s="139"/>
-      <c r="AW2" s="140" t="s">
+      <c r="AW2" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX2" s="138"/>
@@ -9152,22 +9159,22 @@
       <c r="BH2" s="138"/>
       <c r="BI2" s="138"/>
       <c r="BJ2" s="139"/>
-      <c r="BK2" s="140" t="s">
+      <c r="BK2" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL2" s="138"/>
       <c r="BM2" s="138"/>
       <c r="BN2" s="138"/>
       <c r="BO2" s="139"/>
-      <c r="BP2" s="141"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="142"/>
-      <c r="BU2" s="142"/>
-      <c r="BV2" s="142"/>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="143"/>
+      <c r="BP2" s="140"/>
+      <c r="BQ2" s="141"/>
+      <c r="BR2" s="141"/>
+      <c r="BS2" s="141"/>
+      <c r="BT2" s="141"/>
+      <c r="BU2" s="141"/>
+      <c r="BV2" s="141"/>
+      <c r="BW2" s="141"/>
+      <c r="BX2" s="142"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -13104,109 +13111,109 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="149" t="str">
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="153" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="142"/>
-      <c r="S52" s="142"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="142"/>
-      <c r="V52" s="142"/>
-      <c r="W52" s="142"/>
-      <c r="X52" s="142"/>
-      <c r="Y52" s="142"/>
-      <c r="Z52" s="142"/>
-      <c r="AA52" s="142"/>
-      <c r="AB52" s="142"/>
-      <c r="AC52" s="142"/>
-      <c r="AD52" s="142"/>
-      <c r="AE52" s="142"/>
-      <c r="AF52" s="142"/>
-      <c r="AG52" s="142"/>
-      <c r="AH52" s="142"/>
-      <c r="AI52" s="142"/>
-      <c r="AJ52" s="142"/>
-      <c r="AK52" s="142"/>
-      <c r="AL52" s="142"/>
-      <c r="AM52" s="142"/>
-      <c r="AN52" s="142"/>
-      <c r="AO52" s="142"/>
-      <c r="AP52" s="142"/>
-      <c r="AQ52" s="142"/>
-      <c r="AR52" s="142"/>
-      <c r="AS52" s="142"/>
-      <c r="AT52" s="142"/>
-      <c r="AU52" s="142"/>
-      <c r="AV52" s="147"/>
-      <c r="AW52" s="146" t="s">
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
+      <c r="P52" s="141"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="141"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="141"/>
+      <c r="V52" s="141"/>
+      <c r="W52" s="141"/>
+      <c r="X52" s="141"/>
+      <c r="Y52" s="141"/>
+      <c r="Z52" s="141"/>
+      <c r="AA52" s="141"/>
+      <c r="AB52" s="141"/>
+      <c r="AC52" s="141"/>
+      <c r="AD52" s="141"/>
+      <c r="AE52" s="141"/>
+      <c r="AF52" s="141"/>
+      <c r="AG52" s="141"/>
+      <c r="AH52" s="141"/>
+      <c r="AI52" s="141"/>
+      <c r="AJ52" s="141"/>
+      <c r="AK52" s="141"/>
+      <c r="AL52" s="141"/>
+      <c r="AM52" s="141"/>
+      <c r="AN52" s="141"/>
+      <c r="AO52" s="141"/>
+      <c r="AP52" s="141"/>
+      <c r="AQ52" s="141"/>
+      <c r="AR52" s="141"/>
+      <c r="AS52" s="141"/>
+      <c r="AT52" s="141"/>
+      <c r="AU52" s="141"/>
+      <c r="AV52" s="144"/>
+      <c r="AW52" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="142"/>
-      <c r="AY52" s="142"/>
-      <c r="AZ52" s="142"/>
-      <c r="BA52" s="147"/>
-      <c r="BB52" s="141" t="str">
+      <c r="AX52" s="141"/>
+      <c r="AY52" s="141"/>
+      <c r="AZ52" s="141"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="140" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="142"/>
-      <c r="BD52" s="142"/>
-      <c r="BE52" s="142"/>
-      <c r="BF52" s="142"/>
-      <c r="BG52" s="142"/>
-      <c r="BH52" s="142"/>
-      <c r="BI52" s="142"/>
-      <c r="BJ52" s="147"/>
-      <c r="BK52" s="146" t="s">
+      <c r="BC52" s="141"/>
+      <c r="BD52" s="141"/>
+      <c r="BE52" s="141"/>
+      <c r="BF52" s="141"/>
+      <c r="BG52" s="141"/>
+      <c r="BH52" s="141"/>
+      <c r="BI52" s="141"/>
+      <c r="BJ52" s="144"/>
+      <c r="BK52" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="142"/>
-      <c r="BM52" s="142"/>
-      <c r="BN52" s="142"/>
-      <c r="BO52" s="147"/>
-      <c r="BP52" s="141" t="str">
+      <c r="BL52" s="141"/>
+      <c r="BM52" s="141"/>
+      <c r="BN52" s="141"/>
+      <c r="BO52" s="144"/>
+      <c r="BP52" s="140" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="142"/>
-      <c r="BR52" s="142"/>
-      <c r="BS52" s="142"/>
-      <c r="BT52" s="142"/>
-      <c r="BU52" s="142"/>
-      <c r="BV52" s="142"/>
-      <c r="BW52" s="142"/>
-      <c r="BX52" s="143"/>
+      <c r="BQ52" s="141"/>
+      <c r="BR52" s="141"/>
+      <c r="BS52" s="141"/>
+      <c r="BT52" s="141"/>
+      <c r="BU52" s="141"/>
+      <c r="BV52" s="141"/>
+      <c r="BW52" s="141"/>
+      <c r="BX52" s="142"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="145" t="s">
+      <c r="A53" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
       <c r="D53" s="138"/>
       <c r="E53" s="139"/>
-      <c r="F53" s="151" t="str">
+      <c r="F53" s="147" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
@@ -13229,14 +13236,14 @@
       <c r="W53" s="138"/>
       <c r="X53" s="138"/>
       <c r="Y53" s="139"/>
-      <c r="Z53" s="140" t="s">
+      <c r="Z53" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA53" s="138"/>
       <c r="AB53" s="138"/>
       <c r="AC53" s="138"/>
       <c r="AD53" s="139"/>
-      <c r="AE53" s="151" t="str">
+      <c r="AE53" s="147" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>共通部</v>
       </c>
@@ -13257,7 +13264,7 @@
       <c r="AT53" s="138"/>
       <c r="AU53" s="138"/>
       <c r="AV53" s="139"/>
-      <c r="AW53" s="140" t="s">
+      <c r="AW53" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX53" s="138"/>
@@ -13276,7 +13283,7 @@
       <c r="BH53" s="138"/>
       <c r="BI53" s="138"/>
       <c r="BJ53" s="139"/>
-      <c r="BK53" s="140" t="s">
+      <c r="BK53" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL53" s="138"/>
@@ -13294,7 +13301,7 @@
       <c r="BU53" s="138"/>
       <c r="BV53" s="138"/>
       <c r="BW53" s="138"/>
-      <c r="BX53" s="144"/>
+      <c r="BX53" s="154"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -15882,22 +15889,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE1:AV1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="BP53:BX53"/>
     <mergeCell ref="BP52:BX52"/>
     <mergeCell ref="BK53:BO53"/>
@@ -15912,6 +15903,22 @@
     <mergeCell ref="BB53:BJ53"/>
     <mergeCell ref="BB52:BJ52"/>
     <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE1:AV1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -15926,8 +15933,8 @@
   </sheetPr>
   <dimension ref="A1:BZ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="BH60" sqref="BH60"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="BT5" sqref="BT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -15937,69 +15944,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="154" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="153" t="s">
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="142"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="142"/>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="142"/>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="142"/>
-      <c r="AT1" s="142"/>
-      <c r="AU1" s="142"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="146" t="s">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="141"/>
+      <c r="AT1" s="141"/>
+      <c r="AU1" s="141"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="142"/>
-      <c r="AY1" s="142"/>
-      <c r="AZ1" s="142"/>
-      <c r="BA1" s="147"/>
+      <c r="AX1" s="141"/>
+      <c r="AY1" s="141"/>
+      <c r="AZ1" s="141"/>
+      <c r="BA1" s="144"/>
       <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
@@ -16011,36 +16018,36 @@
       <c r="BH1" s="138"/>
       <c r="BI1" s="138"/>
       <c r="BJ1" s="139"/>
-      <c r="BK1" s="146" t="s">
+      <c r="BK1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="142"/>
-      <c r="BM1" s="142"/>
-      <c r="BN1" s="142"/>
-      <c r="BO1" s="147"/>
-      <c r="BP1" s="141" t="s">
+      <c r="BL1" s="141"/>
+      <c r="BM1" s="141"/>
+      <c r="BN1" s="141"/>
+      <c r="BO1" s="144"/>
+      <c r="BP1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="142"/>
-      <c r="BR1" s="142"/>
-      <c r="BS1" s="142"/>
-      <c r="BT1" s="142"/>
-      <c r="BU1" s="142"/>
-      <c r="BV1" s="142"/>
-      <c r="BW1" s="142"/>
-      <c r="BX1" s="143"/>
+      <c r="BQ1" s="141"/>
+      <c r="BR1" s="141"/>
+      <c r="BS1" s="141"/>
+      <c r="BT1" s="141"/>
+      <c r="BU1" s="141"/>
+      <c r="BV1" s="141"/>
+      <c r="BW1" s="141"/>
+      <c r="BX1" s="142"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
       <c r="E2" s="139"/>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="147" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="138"/>
@@ -16062,7 +16069,7 @@
       <c r="W2" s="138"/>
       <c r="X2" s="138"/>
       <c r="Y2" s="139"/>
-      <c r="Z2" s="140" t="s">
+      <c r="Z2" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA2" s="138"/>
@@ -16089,14 +16096,16 @@
       <c r="AT2" s="138"/>
       <c r="AU2" s="138"/>
       <c r="AV2" s="139"/>
-      <c r="AW2" s="140" t="s">
+      <c r="AW2" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX2" s="138"/>
       <c r="AY2" s="138"/>
       <c r="AZ2" s="138"/>
       <c r="BA2" s="139"/>
-      <c r="BB2" s="137"/>
+      <c r="BB2" s="156" t="s">
+        <v>235</v>
+      </c>
       <c r="BC2" s="138"/>
       <c r="BD2" s="138"/>
       <c r="BE2" s="138"/>
@@ -16105,22 +16114,24 @@
       <c r="BH2" s="138"/>
       <c r="BI2" s="138"/>
       <c r="BJ2" s="139"/>
-      <c r="BK2" s="140" t="s">
+      <c r="BK2" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL2" s="138"/>
       <c r="BM2" s="138"/>
       <c r="BN2" s="138"/>
       <c r="BO2" s="139"/>
-      <c r="BP2" s="141"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="142"/>
-      <c r="BU2" s="142"/>
-      <c r="BV2" s="142"/>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="143"/>
+      <c r="BP2" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ2" s="141"/>
+      <c r="BR2" s="141"/>
+      <c r="BS2" s="141"/>
+      <c r="BT2" s="141"/>
+      <c r="BU2" s="141"/>
+      <c r="BV2" s="141"/>
+      <c r="BW2" s="141"/>
+      <c r="BX2" s="142"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -20059,109 +20070,109 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="149" t="str">
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="153" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="142"/>
-      <c r="S52" s="142"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="142"/>
-      <c r="V52" s="142"/>
-      <c r="W52" s="142"/>
-      <c r="X52" s="142"/>
-      <c r="Y52" s="142"/>
-      <c r="Z52" s="142"/>
-      <c r="AA52" s="142"/>
-      <c r="AB52" s="142"/>
-      <c r="AC52" s="142"/>
-      <c r="AD52" s="142"/>
-      <c r="AE52" s="142"/>
-      <c r="AF52" s="142"/>
-      <c r="AG52" s="142"/>
-      <c r="AH52" s="142"/>
-      <c r="AI52" s="142"/>
-      <c r="AJ52" s="142"/>
-      <c r="AK52" s="142"/>
-      <c r="AL52" s="142"/>
-      <c r="AM52" s="142"/>
-      <c r="AN52" s="142"/>
-      <c r="AO52" s="142"/>
-      <c r="AP52" s="142"/>
-      <c r="AQ52" s="142"/>
-      <c r="AR52" s="142"/>
-      <c r="AS52" s="142"/>
-      <c r="AT52" s="142"/>
-      <c r="AU52" s="142"/>
-      <c r="AV52" s="147"/>
-      <c r="AW52" s="146" t="s">
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
+      <c r="P52" s="141"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="141"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="141"/>
+      <c r="V52" s="141"/>
+      <c r="W52" s="141"/>
+      <c r="X52" s="141"/>
+      <c r="Y52" s="141"/>
+      <c r="Z52" s="141"/>
+      <c r="AA52" s="141"/>
+      <c r="AB52" s="141"/>
+      <c r="AC52" s="141"/>
+      <c r="AD52" s="141"/>
+      <c r="AE52" s="141"/>
+      <c r="AF52" s="141"/>
+      <c r="AG52" s="141"/>
+      <c r="AH52" s="141"/>
+      <c r="AI52" s="141"/>
+      <c r="AJ52" s="141"/>
+      <c r="AK52" s="141"/>
+      <c r="AL52" s="141"/>
+      <c r="AM52" s="141"/>
+      <c r="AN52" s="141"/>
+      <c r="AO52" s="141"/>
+      <c r="AP52" s="141"/>
+      <c r="AQ52" s="141"/>
+      <c r="AR52" s="141"/>
+      <c r="AS52" s="141"/>
+      <c r="AT52" s="141"/>
+      <c r="AU52" s="141"/>
+      <c r="AV52" s="144"/>
+      <c r="AW52" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="142"/>
-      <c r="AY52" s="142"/>
-      <c r="AZ52" s="142"/>
-      <c r="BA52" s="147"/>
-      <c r="BB52" s="141" t="str">
+      <c r="AX52" s="141"/>
+      <c r="AY52" s="141"/>
+      <c r="AZ52" s="141"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="140" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="142"/>
-      <c r="BD52" s="142"/>
-      <c r="BE52" s="142"/>
-      <c r="BF52" s="142"/>
-      <c r="BG52" s="142"/>
-      <c r="BH52" s="142"/>
-      <c r="BI52" s="142"/>
-      <c r="BJ52" s="147"/>
-      <c r="BK52" s="146" t="s">
+      <c r="BC52" s="141"/>
+      <c r="BD52" s="141"/>
+      <c r="BE52" s="141"/>
+      <c r="BF52" s="141"/>
+      <c r="BG52" s="141"/>
+      <c r="BH52" s="141"/>
+      <c r="BI52" s="141"/>
+      <c r="BJ52" s="144"/>
+      <c r="BK52" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="142"/>
-      <c r="BM52" s="142"/>
-      <c r="BN52" s="142"/>
-      <c r="BO52" s="147"/>
-      <c r="BP52" s="141" t="str">
+      <c r="BL52" s="141"/>
+      <c r="BM52" s="141"/>
+      <c r="BN52" s="141"/>
+      <c r="BO52" s="144"/>
+      <c r="BP52" s="140" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="142"/>
-      <c r="BR52" s="142"/>
-      <c r="BS52" s="142"/>
-      <c r="BT52" s="142"/>
-      <c r="BU52" s="142"/>
-      <c r="BV52" s="142"/>
-      <c r="BW52" s="142"/>
-      <c r="BX52" s="143"/>
+      <c r="BQ52" s="141"/>
+      <c r="BR52" s="141"/>
+      <c r="BS52" s="141"/>
+      <c r="BT52" s="141"/>
+      <c r="BU52" s="141"/>
+      <c r="BV52" s="141"/>
+      <c r="BW52" s="141"/>
+      <c r="BX52" s="142"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="145" t="s">
+      <c r="A53" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
       <c r="D53" s="138"/>
       <c r="E53" s="139"/>
-      <c r="F53" s="151" t="str">
+      <c r="F53" s="147" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
@@ -20184,14 +20195,14 @@
       <c r="W53" s="138"/>
       <c r="X53" s="138"/>
       <c r="Y53" s="139"/>
-      <c r="Z53" s="140" t="s">
+      <c r="Z53" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA53" s="138"/>
       <c r="AB53" s="138"/>
       <c r="AC53" s="138"/>
       <c r="AD53" s="139"/>
-      <c r="AE53" s="151" t="str">
+      <c r="AE53" s="147" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ</v>
       </c>
@@ -20212,7 +20223,7 @@
       <c r="AT53" s="138"/>
       <c r="AU53" s="138"/>
       <c r="AV53" s="139"/>
-      <c r="AW53" s="140" t="s">
+      <c r="AW53" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX53" s="138"/>
@@ -20221,7 +20232,7 @@
       <c r="BA53" s="139"/>
       <c r="BB53" s="137" t="str">
         <f>IF($BB$2="","",$BB$2)</f>
-        <v/>
+        <v>2019/11/12</v>
       </c>
       <c r="BC53" s="138"/>
       <c r="BD53" s="138"/>
@@ -20231,7 +20242,7 @@
       <c r="BH53" s="138"/>
       <c r="BI53" s="138"/>
       <c r="BJ53" s="139"/>
-      <c r="BK53" s="140" t="s">
+      <c r="BK53" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL53" s="138"/>
@@ -20240,7 +20251,7 @@
       <c r="BO53" s="139"/>
       <c r="BP53" s="137" t="str">
         <f>IF($BP$2="","",$BP$2)</f>
-        <v/>
+        <v>岩田侑大</v>
       </c>
       <c r="BQ53" s="138"/>
       <c r="BR53" s="138"/>
@@ -20249,7 +20260,7 @@
       <c r="BU53" s="138"/>
       <c r="BV53" s="138"/>
       <c r="BW53" s="138"/>
-      <c r="BX53" s="144"/>
+      <c r="BX53" s="154"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -22915,22 +22926,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE1:AV1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BB2:BJ2"/>
     <mergeCell ref="BP53:BX53"/>
     <mergeCell ref="BP52:BX52"/>
     <mergeCell ref="BK53:BO53"/>
@@ -22945,6 +22940,22 @@
     <mergeCell ref="BB53:BJ53"/>
     <mergeCell ref="BB52:BJ52"/>
     <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE1:AV1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -22971,69 +22982,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="154" t="s">
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="153" t="s">
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="142"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="142"/>
-      <c r="AJ1" s="142"/>
-      <c r="AK1" s="142"/>
-      <c r="AL1" s="142"/>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="142"/>
-      <c r="AR1" s="142"/>
-      <c r="AS1" s="142"/>
-      <c r="AT1" s="142"/>
-      <c r="AU1" s="142"/>
-      <c r="AV1" s="147"/>
-      <c r="AW1" s="146" t="s">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="141"/>
+      <c r="AT1" s="141"/>
+      <c r="AU1" s="141"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="142"/>
-      <c r="AY1" s="142"/>
-      <c r="AZ1" s="142"/>
-      <c r="BA1" s="147"/>
+      <c r="AX1" s="141"/>
+      <c r="AY1" s="141"/>
+      <c r="AZ1" s="141"/>
+      <c r="BA1" s="144"/>
       <c r="BB1" s="137" t="s">
         <v>4</v>
       </c>
@@ -23045,36 +23056,36 @@
       <c r="BH1" s="138"/>
       <c r="BI1" s="138"/>
       <c r="BJ1" s="139"/>
-      <c r="BK1" s="146" t="s">
+      <c r="BK1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" s="142"/>
-      <c r="BM1" s="142"/>
-      <c r="BN1" s="142"/>
-      <c r="BO1" s="147"/>
-      <c r="BP1" s="141" t="s">
+      <c r="BL1" s="141"/>
+      <c r="BM1" s="141"/>
+      <c r="BN1" s="141"/>
+      <c r="BO1" s="144"/>
+      <c r="BP1" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" s="142"/>
-      <c r="BR1" s="142"/>
-      <c r="BS1" s="142"/>
-      <c r="BT1" s="142"/>
-      <c r="BU1" s="142"/>
-      <c r="BV1" s="142"/>
-      <c r="BW1" s="142"/>
-      <c r="BX1" s="143"/>
+      <c r="BQ1" s="141"/>
+      <c r="BR1" s="141"/>
+      <c r="BS1" s="141"/>
+      <c r="BT1" s="141"/>
+      <c r="BU1" s="141"/>
+      <c r="BV1" s="141"/>
+      <c r="BW1" s="141"/>
+      <c r="BX1" s="142"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
       <c r="E2" s="139"/>
-      <c r="F2" s="151" t="s">
+      <c r="F2" s="147" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="138"/>
@@ -23096,7 +23107,7 @@
       <c r="W2" s="138"/>
       <c r="X2" s="138"/>
       <c r="Y2" s="139"/>
-      <c r="Z2" s="140" t="s">
+      <c r="Z2" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA2" s="138"/>
@@ -23123,7 +23134,7 @@
       <c r="AT2" s="138"/>
       <c r="AU2" s="138"/>
       <c r="AV2" s="139"/>
-      <c r="AW2" s="140" t="s">
+      <c r="AW2" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX2" s="138"/>
@@ -23141,7 +23152,7 @@
       <c r="BH2" s="138"/>
       <c r="BI2" s="138"/>
       <c r="BJ2" s="139"/>
-      <c r="BK2" s="140" t="s">
+      <c r="BK2" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL2" s="138"/>
@@ -23151,14 +23162,14 @@
       <c r="BP2" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="142"/>
-      <c r="BU2" s="142"/>
-      <c r="BV2" s="142"/>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="143"/>
+      <c r="BQ2" s="141"/>
+      <c r="BR2" s="141"/>
+      <c r="BS2" s="141"/>
+      <c r="BT2" s="141"/>
+      <c r="BU2" s="141"/>
+      <c r="BV2" s="141"/>
+      <c r="BW2" s="141"/>
+      <c r="BX2" s="142"/>
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
@@ -27105,109 +27116,109 @@
       <c r="BZ51" s="11"/>
     </row>
     <row r="52" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A52" s="148" t="s">
+      <c r="A52" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="149" t="str">
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="153" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
-      <c r="M52" s="142"/>
-      <c r="N52" s="142"/>
-      <c r="O52" s="142"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="142"/>
-      <c r="S52" s="142"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="142"/>
-      <c r="V52" s="142"/>
-      <c r="W52" s="142"/>
-      <c r="X52" s="142"/>
-      <c r="Y52" s="142"/>
-      <c r="Z52" s="142"/>
-      <c r="AA52" s="142"/>
-      <c r="AB52" s="142"/>
-      <c r="AC52" s="142"/>
-      <c r="AD52" s="142"/>
-      <c r="AE52" s="142"/>
-      <c r="AF52" s="142"/>
-      <c r="AG52" s="142"/>
-      <c r="AH52" s="142"/>
-      <c r="AI52" s="142"/>
-      <c r="AJ52" s="142"/>
-      <c r="AK52" s="142"/>
-      <c r="AL52" s="142"/>
-      <c r="AM52" s="142"/>
-      <c r="AN52" s="142"/>
-      <c r="AO52" s="142"/>
-      <c r="AP52" s="142"/>
-      <c r="AQ52" s="142"/>
-      <c r="AR52" s="142"/>
-      <c r="AS52" s="142"/>
-      <c r="AT52" s="142"/>
-      <c r="AU52" s="142"/>
-      <c r="AV52" s="147"/>
-      <c r="AW52" s="146" t="s">
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
+      <c r="P52" s="141"/>
+      <c r="Q52" s="141"/>
+      <c r="R52" s="141"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="141"/>
+      <c r="U52" s="141"/>
+      <c r="V52" s="141"/>
+      <c r="W52" s="141"/>
+      <c r="X52" s="141"/>
+      <c r="Y52" s="141"/>
+      <c r="Z52" s="141"/>
+      <c r="AA52" s="141"/>
+      <c r="AB52" s="141"/>
+      <c r="AC52" s="141"/>
+      <c r="AD52" s="141"/>
+      <c r="AE52" s="141"/>
+      <c r="AF52" s="141"/>
+      <c r="AG52" s="141"/>
+      <c r="AH52" s="141"/>
+      <c r="AI52" s="141"/>
+      <c r="AJ52" s="141"/>
+      <c r="AK52" s="141"/>
+      <c r="AL52" s="141"/>
+      <c r="AM52" s="141"/>
+      <c r="AN52" s="141"/>
+      <c r="AO52" s="141"/>
+      <c r="AP52" s="141"/>
+      <c r="AQ52" s="141"/>
+      <c r="AR52" s="141"/>
+      <c r="AS52" s="141"/>
+      <c r="AT52" s="141"/>
+      <c r="AU52" s="141"/>
+      <c r="AV52" s="144"/>
+      <c r="AW52" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX52" s="142"/>
-      <c r="AY52" s="142"/>
-      <c r="AZ52" s="142"/>
-      <c r="BA52" s="147"/>
-      <c r="BB52" s="141" t="str">
+      <c r="AX52" s="141"/>
+      <c r="AY52" s="141"/>
+      <c r="AZ52" s="141"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="140" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC52" s="142"/>
-      <c r="BD52" s="142"/>
-      <c r="BE52" s="142"/>
-      <c r="BF52" s="142"/>
-      <c r="BG52" s="142"/>
-      <c r="BH52" s="142"/>
-      <c r="BI52" s="142"/>
-      <c r="BJ52" s="147"/>
-      <c r="BK52" s="146" t="s">
+      <c r="BC52" s="141"/>
+      <c r="BD52" s="141"/>
+      <c r="BE52" s="141"/>
+      <c r="BF52" s="141"/>
+      <c r="BG52" s="141"/>
+      <c r="BH52" s="141"/>
+      <c r="BI52" s="141"/>
+      <c r="BJ52" s="144"/>
+      <c r="BK52" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL52" s="142"/>
-      <c r="BM52" s="142"/>
-      <c r="BN52" s="142"/>
-      <c r="BO52" s="147"/>
-      <c r="BP52" s="141" t="str">
+      <c r="BL52" s="141"/>
+      <c r="BM52" s="141"/>
+      <c r="BN52" s="141"/>
+      <c r="BO52" s="144"/>
+      <c r="BP52" s="140" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ52" s="142"/>
-      <c r="BR52" s="142"/>
-      <c r="BS52" s="142"/>
-      <c r="BT52" s="142"/>
-      <c r="BU52" s="142"/>
-      <c r="BV52" s="142"/>
-      <c r="BW52" s="142"/>
-      <c r="BX52" s="143"/>
+      <c r="BQ52" s="141"/>
+      <c r="BR52" s="141"/>
+      <c r="BS52" s="141"/>
+      <c r="BT52" s="141"/>
+      <c r="BU52" s="141"/>
+      <c r="BV52" s="141"/>
+      <c r="BW52" s="141"/>
+      <c r="BX52" s="142"/>
       <c r="BY52" s="6"/>
       <c r="BZ52" s="6"/>
     </row>
     <row r="53" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A53" s="145" t="s">
+      <c r="A53" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
       <c r="D53" s="138"/>
       <c r="E53" s="139"/>
-      <c r="F53" s="151" t="str">
+      <c r="F53" s="147" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
@@ -27230,14 +27241,14 @@
       <c r="W53" s="138"/>
       <c r="X53" s="138"/>
       <c r="Y53" s="139"/>
-      <c r="Z53" s="140" t="s">
+      <c r="Z53" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA53" s="138"/>
       <c r="AB53" s="138"/>
       <c r="AC53" s="138"/>
       <c r="AD53" s="139"/>
-      <c r="AE53" s="151" t="str">
+      <c r="AE53" s="147" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ詳細</v>
       </c>
@@ -27258,7 +27269,7 @@
       <c r="AT53" s="138"/>
       <c r="AU53" s="138"/>
       <c r="AV53" s="139"/>
-      <c r="AW53" s="140" t="s">
+      <c r="AW53" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX53" s="138"/>
@@ -27277,7 +27288,7 @@
       <c r="BH53" s="138"/>
       <c r="BI53" s="138"/>
       <c r="BJ53" s="139"/>
-      <c r="BK53" s="140" t="s">
+      <c r="BK53" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL53" s="138"/>
@@ -27295,7 +27306,7 @@
       <c r="BU53" s="138"/>
       <c r="BV53" s="138"/>
       <c r="BW53" s="138"/>
-      <c r="BX53" s="144"/>
+      <c r="BX53" s="154"/>
       <c r="BY53" s="6"/>
       <c r="BZ53" s="6"/>
     </row>
@@ -30106,107 +30117,107 @@
       <c r="BZ86" s="11"/>
     </row>
     <row r="87" spans="1:78" ht="30.75" customHeight="1">
-      <c r="A87" s="148" t="s">
+      <c r="A87" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="142"/>
-      <c r="C87" s="142"/>
-      <c r="D87" s="142"/>
-      <c r="E87" s="147"/>
-      <c r="F87" s="149" t="str">
+      <c r="B87" s="141"/>
+      <c r="C87" s="141"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="144"/>
+      <c r="F87" s="153" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G87" s="142"/>
-      <c r="H87" s="142"/>
-      <c r="I87" s="142"/>
-      <c r="J87" s="142"/>
-      <c r="K87" s="142"/>
-      <c r="L87" s="142"/>
-      <c r="M87" s="142"/>
-      <c r="N87" s="142"/>
-      <c r="O87" s="142"/>
-      <c r="P87" s="142"/>
-      <c r="Q87" s="142"/>
-      <c r="R87" s="142"/>
-      <c r="S87" s="142"/>
-      <c r="T87" s="142"/>
-      <c r="U87" s="142"/>
-      <c r="V87" s="142"/>
-      <c r="W87" s="142"/>
-      <c r="X87" s="142"/>
-      <c r="Y87" s="142"/>
-      <c r="Z87" s="142"/>
-      <c r="AA87" s="142"/>
-      <c r="AB87" s="142"/>
-      <c r="AC87" s="142"/>
-      <c r="AD87" s="142"/>
-      <c r="AE87" s="142"/>
-      <c r="AF87" s="142"/>
-      <c r="AG87" s="142"/>
-      <c r="AH87" s="142"/>
-      <c r="AI87" s="142"/>
-      <c r="AJ87" s="142"/>
-      <c r="AK87" s="142"/>
-      <c r="AL87" s="142"/>
-      <c r="AM87" s="142"/>
-      <c r="AN87" s="142"/>
-      <c r="AO87" s="142"/>
-      <c r="AP87" s="142"/>
-      <c r="AQ87" s="142"/>
-      <c r="AR87" s="142"/>
-      <c r="AS87" s="142"/>
-      <c r="AT87" s="142"/>
-      <c r="AU87" s="142"/>
-      <c r="AV87" s="147"/>
-      <c r="AW87" s="146" t="s">
+      <c r="G87" s="141"/>
+      <c r="H87" s="141"/>
+      <c r="I87" s="141"/>
+      <c r="J87" s="141"/>
+      <c r="K87" s="141"/>
+      <c r="L87" s="141"/>
+      <c r="M87" s="141"/>
+      <c r="N87" s="141"/>
+      <c r="O87" s="141"/>
+      <c r="P87" s="141"/>
+      <c r="Q87" s="141"/>
+      <c r="R87" s="141"/>
+      <c r="S87" s="141"/>
+      <c r="T87" s="141"/>
+      <c r="U87" s="141"/>
+      <c r="V87" s="141"/>
+      <c r="W87" s="141"/>
+      <c r="X87" s="141"/>
+      <c r="Y87" s="141"/>
+      <c r="Z87" s="141"/>
+      <c r="AA87" s="141"/>
+      <c r="AB87" s="141"/>
+      <c r="AC87" s="141"/>
+      <c r="AD87" s="141"/>
+      <c r="AE87" s="141"/>
+      <c r="AF87" s="141"/>
+      <c r="AG87" s="141"/>
+      <c r="AH87" s="141"/>
+      <c r="AI87" s="141"/>
+      <c r="AJ87" s="141"/>
+      <c r="AK87" s="141"/>
+      <c r="AL87" s="141"/>
+      <c r="AM87" s="141"/>
+      <c r="AN87" s="141"/>
+      <c r="AO87" s="141"/>
+      <c r="AP87" s="141"/>
+      <c r="AQ87" s="141"/>
+      <c r="AR87" s="141"/>
+      <c r="AS87" s="141"/>
+      <c r="AT87" s="141"/>
+      <c r="AU87" s="141"/>
+      <c r="AV87" s="144"/>
+      <c r="AW87" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX87" s="142"/>
-      <c r="AY87" s="142"/>
-      <c r="AZ87" s="142"/>
-      <c r="BA87" s="147"/>
-      <c r="BB87" s="141" t="str">
+      <c r="AX87" s="141"/>
+      <c r="AY87" s="141"/>
+      <c r="AZ87" s="141"/>
+      <c r="BA87" s="144"/>
+      <c r="BB87" s="140" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC87" s="142"/>
-      <c r="BD87" s="142"/>
-      <c r="BE87" s="142"/>
-      <c r="BF87" s="142"/>
-      <c r="BG87" s="142"/>
-      <c r="BH87" s="142"/>
-      <c r="BI87" s="142"/>
-      <c r="BJ87" s="147"/>
-      <c r="BK87" s="146" t="s">
+      <c r="BC87" s="141"/>
+      <c r="BD87" s="141"/>
+      <c r="BE87" s="141"/>
+      <c r="BF87" s="141"/>
+      <c r="BG87" s="141"/>
+      <c r="BH87" s="141"/>
+      <c r="BI87" s="141"/>
+      <c r="BJ87" s="144"/>
+      <c r="BK87" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL87" s="142"/>
-      <c r="BM87" s="142"/>
-      <c r="BN87" s="142"/>
-      <c r="BO87" s="147"/>
-      <c r="BP87" s="141" t="str">
+      <c r="BL87" s="141"/>
+      <c r="BM87" s="141"/>
+      <c r="BN87" s="141"/>
+      <c r="BO87" s="144"/>
+      <c r="BP87" s="140" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ87" s="142"/>
-      <c r="BR87" s="142"/>
-      <c r="BS87" s="142"/>
-      <c r="BT87" s="142"/>
-      <c r="BU87" s="142"/>
-      <c r="BV87" s="142"/>
-      <c r="BW87" s="142"/>
-      <c r="BX87" s="143"/>
+      <c r="BQ87" s="141"/>
+      <c r="BR87" s="141"/>
+      <c r="BS87" s="141"/>
+      <c r="BT87" s="141"/>
+      <c r="BU87" s="141"/>
+      <c r="BV87" s="141"/>
+      <c r="BW87" s="141"/>
+      <c r="BX87" s="142"/>
     </row>
     <row r="88" spans="1:78" ht="30.75" customHeight="1">
-      <c r="A88" s="145" t="s">
+      <c r="A88" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="138"/>
       <c r="C88" s="138"/>
       <c r="D88" s="138"/>
       <c r="E88" s="139"/>
-      <c r="F88" s="151" t="str">
+      <c r="F88" s="147" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
@@ -30229,14 +30240,14 @@
       <c r="W88" s="138"/>
       <c r="X88" s="138"/>
       <c r="Y88" s="139"/>
-      <c r="Z88" s="140" t="s">
+      <c r="Z88" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA88" s="138"/>
       <c r="AB88" s="138"/>
       <c r="AC88" s="138"/>
       <c r="AD88" s="139"/>
-      <c r="AE88" s="151" t="str">
+      <c r="AE88" s="147" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ詳細</v>
       </c>
@@ -30257,7 +30268,7 @@
       <c r="AT88" s="138"/>
       <c r="AU88" s="138"/>
       <c r="AV88" s="139"/>
-      <c r="AW88" s="140" t="s">
+      <c r="AW88" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX88" s="138"/>
@@ -30276,7 +30287,7 @@
       <c r="BH88" s="138"/>
       <c r="BI88" s="138"/>
       <c r="BJ88" s="139"/>
-      <c r="BK88" s="140" t="s">
+      <c r="BK88" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL88" s="138"/>
@@ -30294,7 +30305,7 @@
       <c r="BU88" s="138"/>
       <c r="BV88" s="138"/>
       <c r="BW88" s="138"/>
-      <c r="BX88" s="144"/>
+      <c r="BX88" s="154"/>
     </row>
     <row r="89" spans="1:78" ht="13.5">
       <c r="A89" s="9" t="s">
@@ -33310,107 +33321,107 @@
       <c r="BX124" s="24"/>
     </row>
     <row r="125" spans="1:76" ht="30.75" customHeight="1">
-      <c r="A125" s="148" t="s">
+      <c r="A125" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="142"/>
-      <c r="C125" s="142"/>
-      <c r="D125" s="142"/>
-      <c r="E125" s="147"/>
-      <c r="F125" s="149" t="str">
+      <c r="B125" s="141"/>
+      <c r="C125" s="141"/>
+      <c r="D125" s="141"/>
+      <c r="E125" s="144"/>
+      <c r="F125" s="153" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
       </c>
-      <c r="G125" s="142"/>
-      <c r="H125" s="142"/>
-      <c r="I125" s="142"/>
-      <c r="J125" s="142"/>
-      <c r="K125" s="142"/>
-      <c r="L125" s="142"/>
-      <c r="M125" s="142"/>
-      <c r="N125" s="142"/>
-      <c r="O125" s="142"/>
-      <c r="P125" s="142"/>
-      <c r="Q125" s="142"/>
-      <c r="R125" s="142"/>
-      <c r="S125" s="142"/>
-      <c r="T125" s="142"/>
-      <c r="U125" s="142"/>
-      <c r="V125" s="142"/>
-      <c r="W125" s="142"/>
-      <c r="X125" s="142"/>
-      <c r="Y125" s="142"/>
-      <c r="Z125" s="142"/>
-      <c r="AA125" s="142"/>
-      <c r="AB125" s="142"/>
-      <c r="AC125" s="142"/>
-      <c r="AD125" s="142"/>
-      <c r="AE125" s="142"/>
-      <c r="AF125" s="142"/>
-      <c r="AG125" s="142"/>
-      <c r="AH125" s="142"/>
-      <c r="AI125" s="142"/>
-      <c r="AJ125" s="142"/>
-      <c r="AK125" s="142"/>
-      <c r="AL125" s="142"/>
-      <c r="AM125" s="142"/>
-      <c r="AN125" s="142"/>
-      <c r="AO125" s="142"/>
-      <c r="AP125" s="142"/>
-      <c r="AQ125" s="142"/>
-      <c r="AR125" s="142"/>
-      <c r="AS125" s="142"/>
-      <c r="AT125" s="142"/>
-      <c r="AU125" s="142"/>
-      <c r="AV125" s="147"/>
-      <c r="AW125" s="146" t="s">
+      <c r="G125" s="141"/>
+      <c r="H125" s="141"/>
+      <c r="I125" s="141"/>
+      <c r="J125" s="141"/>
+      <c r="K125" s="141"/>
+      <c r="L125" s="141"/>
+      <c r="M125" s="141"/>
+      <c r="N125" s="141"/>
+      <c r="O125" s="141"/>
+      <c r="P125" s="141"/>
+      <c r="Q125" s="141"/>
+      <c r="R125" s="141"/>
+      <c r="S125" s="141"/>
+      <c r="T125" s="141"/>
+      <c r="U125" s="141"/>
+      <c r="V125" s="141"/>
+      <c r="W125" s="141"/>
+      <c r="X125" s="141"/>
+      <c r="Y125" s="141"/>
+      <c r="Z125" s="141"/>
+      <c r="AA125" s="141"/>
+      <c r="AB125" s="141"/>
+      <c r="AC125" s="141"/>
+      <c r="AD125" s="141"/>
+      <c r="AE125" s="141"/>
+      <c r="AF125" s="141"/>
+      <c r="AG125" s="141"/>
+      <c r="AH125" s="141"/>
+      <c r="AI125" s="141"/>
+      <c r="AJ125" s="141"/>
+      <c r="AK125" s="141"/>
+      <c r="AL125" s="141"/>
+      <c r="AM125" s="141"/>
+      <c r="AN125" s="141"/>
+      <c r="AO125" s="141"/>
+      <c r="AP125" s="141"/>
+      <c r="AQ125" s="141"/>
+      <c r="AR125" s="141"/>
+      <c r="AS125" s="141"/>
+      <c r="AT125" s="141"/>
+      <c r="AU125" s="141"/>
+      <c r="AV125" s="144"/>
+      <c r="AW125" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX125" s="142"/>
-      <c r="AY125" s="142"/>
-      <c r="AZ125" s="142"/>
-      <c r="BA125" s="147"/>
-      <c r="BB125" s="141" t="str">
+      <c r="AX125" s="141"/>
+      <c r="AY125" s="141"/>
+      <c r="AZ125" s="141"/>
+      <c r="BA125" s="144"/>
+      <c r="BB125" s="140" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC125" s="142"/>
-      <c r="BD125" s="142"/>
-      <c r="BE125" s="142"/>
-      <c r="BF125" s="142"/>
-      <c r="BG125" s="142"/>
-      <c r="BH125" s="142"/>
-      <c r="BI125" s="142"/>
-      <c r="BJ125" s="147"/>
-      <c r="BK125" s="146" t="s">
+      <c r="BC125" s="141"/>
+      <c r="BD125" s="141"/>
+      <c r="BE125" s="141"/>
+      <c r="BF125" s="141"/>
+      <c r="BG125" s="141"/>
+      <c r="BH125" s="141"/>
+      <c r="BI125" s="141"/>
+      <c r="BJ125" s="144"/>
+      <c r="BK125" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL125" s="142"/>
-      <c r="BM125" s="142"/>
-      <c r="BN125" s="142"/>
-      <c r="BO125" s="147"/>
-      <c r="BP125" s="141" t="str">
+      <c r="BL125" s="141"/>
+      <c r="BM125" s="141"/>
+      <c r="BN125" s="141"/>
+      <c r="BO125" s="144"/>
+      <c r="BP125" s="140" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
       </c>
-      <c r="BQ125" s="142"/>
-      <c r="BR125" s="142"/>
-      <c r="BS125" s="142"/>
-      <c r="BT125" s="142"/>
-      <c r="BU125" s="142"/>
-      <c r="BV125" s="142"/>
-      <c r="BW125" s="142"/>
-      <c r="BX125" s="143"/>
+      <c r="BQ125" s="141"/>
+      <c r="BR125" s="141"/>
+      <c r="BS125" s="141"/>
+      <c r="BT125" s="141"/>
+      <c r="BU125" s="141"/>
+      <c r="BV125" s="141"/>
+      <c r="BW125" s="141"/>
+      <c r="BX125" s="142"/>
     </row>
     <row r="126" spans="1:76" ht="30.75" customHeight="1">
-      <c r="A126" s="145" t="s">
+      <c r="A126" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B126" s="138"/>
       <c r="C126" s="138"/>
       <c r="D126" s="138"/>
       <c r="E126" s="139"/>
-      <c r="F126" s="151" t="str">
+      <c r="F126" s="147" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
@@ -33433,14 +33444,14 @@
       <c r="W126" s="138"/>
       <c r="X126" s="138"/>
       <c r="Y126" s="139"/>
-      <c r="Z126" s="140" t="s">
+      <c r="Z126" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA126" s="138"/>
       <c r="AB126" s="138"/>
       <c r="AC126" s="138"/>
       <c r="AD126" s="139"/>
-      <c r="AE126" s="151" t="str">
+      <c r="AE126" s="147" t="str">
         <f>IF($AE$2="","",$AE$2)</f>
         <v>商品マスタ詳細</v>
       </c>
@@ -33461,7 +33472,7 @@
       <c r="AT126" s="138"/>
       <c r="AU126" s="138"/>
       <c r="AV126" s="139"/>
-      <c r="AW126" s="140" t="s">
+      <c r="AW126" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX126" s="138"/>
@@ -33480,7 +33491,7 @@
       <c r="BH126" s="138"/>
       <c r="BI126" s="138"/>
       <c r="BJ126" s="139"/>
-      <c r="BK126" s="140" t="s">
+      <c r="BK126" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL126" s="138"/>
@@ -33498,7 +33509,7 @@
       <c r="BU126" s="138"/>
       <c r="BV126" s="138"/>
       <c r="BW126" s="138"/>
-      <c r="BX126" s="144"/>
+      <c r="BX126" s="154"/>
     </row>
     <row r="127" spans="1:76" ht="13.5">
       <c r="A127" s="9" t="s">
@@ -36456,13 +36467,13 @@
       <c r="BX162" s="24"/>
     </row>
     <row r="163" spans="1:76" ht="31.5" customHeight="1">
-      <c r="A163" s="148" t="s">
+      <c r="A163" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="142"/>
-      <c r="C163" s="142"/>
-      <c r="D163" s="142"/>
-      <c r="E163" s="147"/>
+      <c r="B163" s="141"/>
+      <c r="C163" s="141"/>
+      <c r="D163" s="141"/>
+      <c r="E163" s="144"/>
       <c r="F163" s="25" t="str">
         <f>IF($F$1="","",$F$1)</f>
         <v>研修内製化</v>
@@ -36509,32 +36520,32 @@
       <c r="AT163" s="1"/>
       <c r="AU163" s="1"/>
       <c r="AV163" s="2"/>
-      <c r="AW163" s="146" t="s">
+      <c r="AW163" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AX163" s="142"/>
-      <c r="AY163" s="142"/>
-      <c r="AZ163" s="142"/>
-      <c r="BA163" s="147"/>
-      <c r="BB163" s="141" t="str">
+      <c r="AX163" s="141"/>
+      <c r="AY163" s="141"/>
+      <c r="AZ163" s="141"/>
+      <c r="BA163" s="144"/>
+      <c r="BB163" s="140" t="str">
         <f>IF($BB$1="","",$BB$1)</f>
         <v>2018/3/14</v>
       </c>
-      <c r="BC163" s="142"/>
-      <c r="BD163" s="142"/>
-      <c r="BE163" s="142"/>
-      <c r="BF163" s="142"/>
-      <c r="BG163" s="142"/>
-      <c r="BH163" s="142"/>
-      <c r="BI163" s="142"/>
-      <c r="BJ163" s="147"/>
-      <c r="BK163" s="146" t="s">
+      <c r="BC163" s="141"/>
+      <c r="BD163" s="141"/>
+      <c r="BE163" s="141"/>
+      <c r="BF163" s="141"/>
+      <c r="BG163" s="141"/>
+      <c r="BH163" s="141"/>
+      <c r="BI163" s="141"/>
+      <c r="BJ163" s="144"/>
+      <c r="BK163" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="BL163" s="142"/>
-      <c r="BM163" s="142"/>
-      <c r="BN163" s="142"/>
-      <c r="BO163" s="147"/>
+      <c r="BL163" s="141"/>
+      <c r="BM163" s="141"/>
+      <c r="BN163" s="141"/>
+      <c r="BO163" s="144"/>
       <c r="BP163" s="8" t="str">
         <f>IF($BP$1="","",$BP$1)</f>
         <v>下重</v>
@@ -36549,14 +36560,14 @@
       <c r="BX163" s="5"/>
     </row>
     <row r="164" spans="1:76" ht="31.5" customHeight="1">
-      <c r="A164" s="145" t="s">
+      <c r="A164" s="146" t="s">
         <v>7</v>
       </c>
       <c r="B164" s="138"/>
       <c r="C164" s="138"/>
       <c r="D164" s="138"/>
       <c r="E164" s="139"/>
-      <c r="F164" s="151" t="str">
+      <c r="F164" s="147" t="str">
         <f>IF($F$2="","",$F$2)</f>
         <v>詳細設計</v>
       </c>
@@ -36579,7 +36590,7 @@
       <c r="W164" s="138"/>
       <c r="X164" s="138"/>
       <c r="Y164" s="139"/>
-      <c r="Z164" s="140" t="s">
+      <c r="Z164" s="151" t="s">
         <v>9</v>
       </c>
       <c r="AA164" s="138"/>
@@ -36607,7 +36618,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
       <c r="AV164" s="4"/>
-      <c r="AW164" s="140" t="s">
+      <c r="AW164" s="151" t="s">
         <v>13</v>
       </c>
       <c r="AX164" s="138"/>
@@ -36626,7 +36637,7 @@
       <c r="BH164" s="138"/>
       <c r="BI164" s="138"/>
       <c r="BJ164" s="139"/>
-      <c r="BK164" s="140" t="s">
+      <c r="BK164" s="151" t="s">
         <v>14</v>
       </c>
       <c r="BL164" s="138"/>
@@ -39372,36 +39383,28 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="AW53:BA53"/>
-    <mergeCell ref="AW52:BA52"/>
-    <mergeCell ref="AW88:BA88"/>
-    <mergeCell ref="AW87:BA87"/>
-    <mergeCell ref="BB52:BJ52"/>
-    <mergeCell ref="BK52:BO52"/>
-    <mergeCell ref="BK88:BO88"/>
-    <mergeCell ref="BK87:BO87"/>
-    <mergeCell ref="BB88:BJ88"/>
-    <mergeCell ref="BB87:BJ87"/>
-    <mergeCell ref="BB53:BJ53"/>
-    <mergeCell ref="BK53:BO53"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="AE1:AV1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP87:BX87"/>
-    <mergeCell ref="BP53:BX53"/>
-    <mergeCell ref="BP52:BX52"/>
-    <mergeCell ref="BP126:BX126"/>
-    <mergeCell ref="BP125:BX125"/>
+    <mergeCell ref="BK125:BO125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="F126:Y126"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="Z126:AD126"/>
+    <mergeCell ref="AE126:AV126"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F125:AV125"/>
+    <mergeCell ref="AW125:BA125"/>
+    <mergeCell ref="BB125:BJ125"/>
+    <mergeCell ref="AE88:AV88"/>
+    <mergeCell ref="Z88:AD88"/>
+    <mergeCell ref="F52:AV52"/>
+    <mergeCell ref="AE53:AV53"/>
+    <mergeCell ref="F53:Y53"/>
+    <mergeCell ref="Z53:AD53"/>
+    <mergeCell ref="F87:AV87"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F1:Y1"/>
     <mergeCell ref="A164:E164"/>
     <mergeCell ref="F164:Y164"/>
     <mergeCell ref="Z164:AD164"/>
@@ -39418,28 +39421,36 @@
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="F88:Y88"/>
     <mergeCell ref="BB126:BJ126"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F125:AV125"/>
-    <mergeCell ref="AW125:BA125"/>
-    <mergeCell ref="BB125:BJ125"/>
-    <mergeCell ref="AE88:AV88"/>
-    <mergeCell ref="Z88:AD88"/>
-    <mergeCell ref="F52:AV52"/>
-    <mergeCell ref="AE53:AV53"/>
-    <mergeCell ref="F53:Y53"/>
-    <mergeCell ref="Z53:AD53"/>
-    <mergeCell ref="F87:AV87"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="BK125:BO125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="F126:Y126"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="Z126:AD126"/>
-    <mergeCell ref="AE126:AV126"/>
+    <mergeCell ref="BP87:BX87"/>
+    <mergeCell ref="BP53:BX53"/>
+    <mergeCell ref="BP52:BX52"/>
+    <mergeCell ref="BP126:BX126"/>
+    <mergeCell ref="BP125:BX125"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="AE1:AV1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK52:BO52"/>
+    <mergeCell ref="BK88:BO88"/>
+    <mergeCell ref="BK87:BO87"/>
+    <mergeCell ref="BB88:BJ88"/>
+    <mergeCell ref="BB87:BJ87"/>
+    <mergeCell ref="BB53:BJ53"/>
+    <mergeCell ref="BK53:BO53"/>
+    <mergeCell ref="AW53:BA53"/>
+    <mergeCell ref="AW52:BA52"/>
+    <mergeCell ref="AW88:BA88"/>
+    <mergeCell ref="AW87:BA87"/>
+    <mergeCell ref="BB52:BJ52"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
